--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20250" windowHeight="10065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>登录后台系统</t>
   </si>
@@ -216,28 +216,31 @@
     <t>添加部门</t>
   </si>
   <si>
+    <t>/s/addDepartment.action</t>
+  </si>
+  <si>
+    <t>成立时间</t>
+  </si>
+  <si>
+    <t>position(json数组)</t>
+  </si>
+  <si>
+    <t>职位名称</t>
+  </si>
+  <si>
+    <t>permission(json数组)</t>
+  </si>
+  <si>
+    <t>department(json数组)</t>
+  </si>
+  <si>
+    <t>部门Id(如果有"customer_visit"权限才需要提交此参数)</t>
+  </si>
+  <si>
+    <t>添加部门成员</t>
+  </si>
+  <si>
     <t>/s/addMember.action</t>
-  </si>
-  <si>
-    <t>成立时间</t>
-  </si>
-  <si>
-    <t>position(json数组)</t>
-  </si>
-  <si>
-    <t>职位名称</t>
-  </si>
-  <si>
-    <t>permission(json数组)</t>
-  </si>
-  <si>
-    <t>department(json数组)</t>
-  </si>
-  <si>
-    <t>部门Id(如果有"customer_visit"权限才需要提交此参数)</t>
-  </si>
-  <si>
-    <t>添加部门成员</t>
   </si>
   <si>
     <t>姓名</t>
@@ -356,11 +359,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,7 +382,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -387,61 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,15 +483,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +534,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,19 +624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,121 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,15 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -730,39 +724,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +745,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -792,6 +771,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="A1:O350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="M270" sqref="M270:O270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3132,7 +3135,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3216,7 +3219,7 @@
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -3258,7 +3261,7 @@
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
@@ -3300,7 +3303,7 @@
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -3342,7 +3345,7 @@
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
@@ -3363,7 +3366,7 @@
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
@@ -3380,7 +3383,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -3455,7 +3458,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3518,7 +3521,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3586,11 +3589,11 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L202" s="4"/>
       <c r="M202" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
@@ -3602,11 +3605,11 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -3618,7 +3621,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3681,7 +3684,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3749,11 +3752,11 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L224" s="4"/>
       <c r="M224" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
@@ -3765,11 +3768,11 @@
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
@@ -3781,7 +3784,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -3912,11 +3915,11 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
       <c r="K247" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L247" s="4"/>
       <c r="M247" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N247" s="4"/>
       <c r="O247" s="4"/>
@@ -3928,11 +3931,11 @@
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
@@ -3944,7 +3947,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -4007,7 +4010,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4112,7 +4115,7 @@
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
@@ -4154,7 +4157,7 @@
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
@@ -4196,7 +4199,7 @@
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
@@ -4217,7 +4220,7 @@
       </c>
       <c r="G275" s="4"/>
       <c r="H275" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
@@ -4238,7 +4241,7 @@
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
@@ -4259,7 +4262,7 @@
       </c>
       <c r="G277" s="4"/>
       <c r="H277" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
@@ -4276,7 +4279,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G278" s="6"/>
       <c r="H278" s="6"/>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -4414,7 +4417,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -4482,11 +4485,11 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
       <c r="K301" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L301" s="4"/>
       <c r="M301" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N301" s="4"/>
       <c r="O301" s="4"/>
@@ -4584,7 +4587,7 @@
       </c>
       <c r="G306" s="6"/>
       <c r="H306" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -4760,7 +4763,7 @@
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -4828,11 +4831,11 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L326" s="4"/>
       <c r="M326" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N326" s="4"/>
       <c r="O326" s="4"/>
@@ -4860,7 +4863,7 @@
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -4991,11 +4994,11 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
       <c r="K349" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L349" s="4"/>
       <c r="M349" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21420" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>登录后台系统</t>
   </si>
@@ -310,6 +310,33 @@
   </si>
   <si>
     <t>删除部门</t>
+  </si>
+  <si>
+    <t>/s/deleteDepartment.action</t>
+  </si>
+  <si>
+    <t>获取职位列表</t>
+  </si>
+  <si>
+    <t>/s/findPositionList.action</t>
+  </si>
+  <si>
+    <t>获取当前在任职位的总人数</t>
+  </si>
+  <si>
+    <t>/s/countPositionMember.action</t>
+  </si>
+  <si>
+    <t>职位的Id</t>
+  </si>
+  <si>
+    <t>获取身份证图片</t>
+  </si>
+  <si>
+    <t>/s/getCardImage.action</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
@@ -359,24 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,8 +401,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,55 +448,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +488,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,7 +496,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,7 +561,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,19 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +663,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,91 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +726,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -713,17 +755,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,24 +814,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -771,30 +822,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,10 +842,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,55 +854,73 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,16 +929,31 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,40 +962,7 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O350"/>
+  <dimension ref="A1:O387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="M385" sqref="M385:O385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3782,147 +3809,97 @@
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
     </row>
-    <row r="242" spans="1:15">
-      <c r="A242" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-    </row>
-    <row r="243" spans="1:15">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-    </row>
     <row r="244" spans="1:15">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+      <c r="J244" s="8"/>
+      <c r="K244" s="8"/>
+      <c r="L244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="8"/>
+      <c r="O244" s="8"/>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="8"/>
+      <c r="I245" s="8"/>
+      <c r="J245" s="8"/>
+      <c r="K245" s="8"/>
+      <c r="L245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+      <c r="O245" s="8"/>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="A246" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2" t="s">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F244" s="2" t="s">
+      <c r="F246" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2" t="s">
+      <c r="G246" s="2"/>
+      <c r="H246" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2" t="s">
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-    </row>
-    <row r="245" spans="1:15">
-      <c r="A245" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3" t="s">
+      <c r="L246" s="2"/>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+    </row>
+    <row r="247" spans="1:15">
+      <c r="A247" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F247" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3" t="s">
+      <c r="G247" s="3"/>
+      <c r="H247" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3" t="s">
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3" t="s">
+      <c r="L247" s="3"/>
+      <c r="M247" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N245" s="3"/>
-      <c r="O245" s="3"/>
-    </row>
-    <row r="246" spans="1:15">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="4"/>
-      <c r="H246" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I246" s="4"/>
-      <c r="J246" s="4"/>
-      <c r="K246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L246" s="4"/>
-      <c r="M246" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N246" s="4"/>
-      <c r="O246" s="4"/>
-    </row>
-    <row r="247" spans="1:15">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G247" s="4"/>
-      <c r="H247" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I247" s="4"/>
-      <c r="J247" s="4"/>
-      <c r="K247" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L247" s="4"/>
-      <c r="M247" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N247" s="4"/>
-      <c r="O247" s="4"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="4"/>
@@ -3931,650 +3908,751 @@
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="4" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="4"/>
+      <c r="K248" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L248" s="4"/>
-      <c r="M248" s="4"/>
+      <c r="M248" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
     </row>
-    <row r="263" spans="1:15">
-      <c r="A263" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
-      <c r="K263" s="8"/>
-      <c r="L263" s="8"/>
-      <c r="M263" s="8"/>
-      <c r="N263" s="8"/>
-      <c r="O263" s="8"/>
-    </row>
-    <row r="264" spans="1:15">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-      <c r="H264" s="8"/>
-      <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
-      <c r="K264" s="8"/>
-      <c r="L264" s="8"/>
-      <c r="M264" s="8"/>
-      <c r="N264" s="8"/>
-      <c r="O264" s="8"/>
-    </row>
-    <row r="265" spans="1:15">
-      <c r="A265" s="2" t="s">
+    <row r="249" spans="1:15">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="4"/>
+      <c r="O249" s="4"/>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="4"/>
+      <c r="N250" s="4"/>
+      <c r="O250" s="4"/>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="4"/>
+      <c r="O251" s="4"/>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="4"/>
+      <c r="O252" s="4"/>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G253" s="4"/>
+      <c r="H253" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="4"/>
+      <c r="O253" s="4"/>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G254" s="4"/>
+      <c r="H254" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="4"/>
+      <c r="N254" s="4"/>
+      <c r="O254" s="4"/>
+    </row>
+    <row r="255" spans="1:15">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" s="4"/>
+      <c r="H255" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="4"/>
+      <c r="O255" s="4"/>
+    </row>
+    <row r="256" spans="1:15">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G256" s="4"/>
+      <c r="H256" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="4"/>
+      <c r="N256" s="4"/>
+      <c r="O256" s="4"/>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G257" s="4"/>
+      <c r="H257" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="4"/>
+      <c r="O257" s="4"/>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G258" s="4"/>
+      <c r="H258" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="4"/>
+      <c r="M258" s="4"/>
+      <c r="N258" s="4"/>
+      <c r="O258" s="4"/>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="4"/>
+      <c r="N259" s="4"/>
+      <c r="O259" s="4"/>
+    </row>
+    <row r="260" spans="1:15">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="4"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="4"/>
+      <c r="N260" s="4"/>
+      <c r="O260" s="4"/>
+    </row>
+    <row r="261" customHeight="1" spans="1:15">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="4"/>
+      <c r="O261" s="4"/>
+    </row>
+    <row r="262" ht="45" customHeight="1" spans="1:15">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G262" s="6"/>
+      <c r="H262" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="4"/>
+      <c r="N262" s="4"/>
+      <c r="O262" s="4"/>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="8"/>
+      <c r="I277" s="8"/>
+      <c r="J277" s="8"/>
+      <c r="K277" s="8"/>
+      <c r="L277" s="8"/>
+      <c r="M277" s="8"/>
+      <c r="N277" s="8"/>
+      <c r="O277" s="8"/>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="8"/>
+      <c r="G278" s="8"/>
+      <c r="H278" s="8"/>
+      <c r="I278" s="8"/>
+      <c r="J278" s="8"/>
+      <c r="K278" s="8"/>
+      <c r="L278" s="8"/>
+      <c r="M278" s="8"/>
+      <c r="N278" s="8"/>
+      <c r="O278" s="8"/>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2" t="s">
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F265" s="2" t="s">
+      <c r="F279" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2" t="s">
+      <c r="G279" s="2"/>
+      <c r="H279" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2" t="s">
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-    </row>
-    <row r="266" spans="1:15">
-      <c r="A266" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3" t="s">
+      <c r="L279" s="2"/>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+      <c r="O279" s="2"/>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F280" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3" t="s">
+      <c r="G280" s="3"/>
+      <c r="H280" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
-      <c r="K266" s="3" t="s">
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L266" s="3"/>
-      <c r="M266" s="3" t="s">
+      <c r="L280" s="3"/>
+      <c r="M280" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N266" s="3"/>
-      <c r="O266" s="3"/>
-    </row>
-    <row r="267" spans="1:15">
-      <c r="A267" s="4"/>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="4"/>
-      <c r="H267" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
-      <c r="K267" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L267" s="4"/>
-      <c r="M267" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N267" s="4"/>
-      <c r="O267" s="4"/>
-    </row>
-    <row r="268" spans="1:15">
-      <c r="A268" s="4"/>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
-      <c r="M268" s="4"/>
-      <c r="N268" s="4"/>
-      <c r="O268" s="4"/>
-    </row>
-    <row r="269" spans="1:15">
-      <c r="A269" s="4"/>
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G269" s="4"/>
-      <c r="H269" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
-      <c r="K269" s="4"/>
-      <c r="L269" s="4"/>
-      <c r="M269" s="4"/>
-      <c r="N269" s="4"/>
-      <c r="O269" s="4"/>
-    </row>
-    <row r="270" spans="1:15">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G270" s="4"/>
-      <c r="H270" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
-      <c r="M270" s="4"/>
-      <c r="N270" s="4"/>
-      <c r="O270" s="4"/>
-    </row>
-    <row r="271" spans="1:15">
-      <c r="A271" s="4"/>
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
-      <c r="M271" s="4"/>
-      <c r="N271" s="4"/>
-      <c r="O271" s="4"/>
-    </row>
-    <row r="272" spans="1:15">
-      <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G272" s="4"/>
-      <c r="H272" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
-      <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
-      <c r="M272" s="4"/>
-      <c r="N272" s="4"/>
-      <c r="O272" s="4"/>
-    </row>
-    <row r="273" spans="1:15">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G273" s="4"/>
-      <c r="H273" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
-      <c r="M273" s="4"/>
-      <c r="N273" s="4"/>
-      <c r="O273" s="4"/>
-    </row>
-    <row r="274" spans="1:15">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G274" s="4"/>
-      <c r="H274" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I274" s="10"/>
-      <c r="J274" s="10"/>
-      <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-      <c r="M274" s="4"/>
-      <c r="N274" s="4"/>
-      <c r="O274" s="4"/>
-    </row>
-    <row r="275" spans="1:15">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G275" s="4"/>
-      <c r="H275" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-      <c r="M275" s="4"/>
-      <c r="N275" s="4"/>
-      <c r="O275" s="4"/>
-    </row>
-    <row r="276" spans="1:15">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G276" s="4"/>
-      <c r="H276" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I276" s="10"/>
-      <c r="J276" s="10"/>
-      <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
-      <c r="M276" s="4"/>
-      <c r="N276" s="4"/>
-      <c r="O276" s="4"/>
-    </row>
-    <row r="277" spans="1:15">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G277" s="4"/>
-      <c r="H277" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I277" s="10"/>
-      <c r="J277" s="10"/>
-      <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
-      <c r="M277" s="4"/>
-      <c r="N277" s="4"/>
-      <c r="O277" s="4"/>
-    </row>
-    <row r="278" spans="1:15">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
-      <c r="J278" s="6"/>
-      <c r="K278" s="4"/>
-      <c r="L278" s="4"/>
-      <c r="M278" s="4"/>
-      <c r="N278" s="4"/>
-      <c r="O278" s="4"/>
-    </row>
-    <row r="279" spans="1:15">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I279" s="6"/>
-      <c r="J279" s="6"/>
-      <c r="K279" s="4"/>
-      <c r="L279" s="4"/>
-      <c r="M279" s="4"/>
-      <c r="N279" s="4"/>
-      <c r="O279" s="4"/>
-    </row>
-    <row r="280" customHeight="1" spans="1:15">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
-      <c r="J280" s="6"/>
-      <c r="K280" s="4"/>
-      <c r="L280" s="4"/>
-      <c r="M280" s="4"/>
-      <c r="N280" s="4"/>
-      <c r="O280" s="4"/>
-    </row>
-    <row r="281" ht="45" customHeight="1" spans="1:15">
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="F281" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G281" s="6"/>
-      <c r="H281" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I281" s="11"/>
-      <c r="J281" s="11"/>
-      <c r="K281" s="4"/>
+      <c r="F281" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="4"/>
+      <c r="H281" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I281" s="4"/>
+      <c r="J281" s="4"/>
+      <c r="K281" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="4"/>
+      <c r="M281" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="N281" s="4"/>
       <c r="O281" s="4"/>
     </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
-      <c r="G296" s="8"/>
-      <c r="H296" s="8"/>
-      <c r="I296" s="8"/>
-      <c r="J296" s="8"/>
-      <c r="K296" s="8"/>
-      <c r="L296" s="8"/>
-      <c r="M296" s="8"/>
-      <c r="N296" s="8"/>
-      <c r="O296" s="8"/>
-    </row>
-    <row r="297" spans="1:15">
-      <c r="A297" s="8"/>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="8"/>
-      <c r="H297" s="8"/>
-      <c r="I297" s="8"/>
-      <c r="J297" s="8"/>
-      <c r="K297" s="8"/>
-      <c r="L297" s="8"/>
-      <c r="M297" s="8"/>
-      <c r="N297" s="8"/>
-      <c r="O297" s="8"/>
-    </row>
-    <row r="298" spans="1:15">
-      <c r="A298" s="2" t="s">
+    <row r="282" spans="1:15">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L282" s="4"/>
+      <c r="M282" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N282" s="4"/>
+      <c r="O282" s="4"/>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G283" s="4"/>
+      <c r="H283" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="4"/>
+      <c r="L283" s="4"/>
+      <c r="M283" s="4"/>
+      <c r="N283" s="4"/>
+      <c r="O283" s="4"/>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I284" s="4"/>
+      <c r="J284" s="4"/>
+      <c r="K284" s="4"/>
+      <c r="L284" s="4"/>
+      <c r="M284" s="4"/>
+      <c r="N284" s="4"/>
+      <c r="O284" s="4"/>
+    </row>
+    <row r="285" spans="1:15">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="5"/>
+      <c r="O285" s="5"/>
+    </row>
+    <row r="286" spans="1:15">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="4"/>
+      <c r="N286" s="4"/>
+      <c r="O286" s="4"/>
+    </row>
+    <row r="287" spans="1:15">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+      <c r="K287" s="4"/>
+      <c r="L287" s="4"/>
+      <c r="M287" s="4"/>
+      <c r="N287" s="4"/>
+      <c r="O287" s="4"/>
+    </row>
+    <row r="288" spans="1:15">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+      <c r="M288" s="4"/>
+      <c r="N288" s="4"/>
+      <c r="O288" s="4"/>
+    </row>
+    <row r="289" ht="13.15" customHeight="1" spans="1:15">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+      <c r="I289" s="7"/>
+      <c r="J289" s="7"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+      <c r="M289" s="4"/>
+      <c r="N289" s="4"/>
+      <c r="O289" s="4"/>
+    </row>
+    <row r="290" customHeight="1" spans="1:15">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I290" s="7"/>
+      <c r="J290" s="7"/>
+      <c r="K290" s="4"/>
+      <c r="L290" s="4"/>
+      <c r="M290" s="4"/>
+      <c r="N290" s="4"/>
+      <c r="O290" s="4"/>
+    </row>
+    <row r="291" spans="1:15">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
+      <c r="I291" s="7"/>
+      <c r="J291" s="7"/>
+      <c r="K291" s="4"/>
+      <c r="L291" s="4"/>
+      <c r="M291" s="4"/>
+      <c r="N291" s="4"/>
+      <c r="O291" s="4"/>
+    </row>
+    <row r="292" ht="45" customHeight="1" spans="1:15">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="7"/>
+      <c r="H292" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I292" s="9"/>
+      <c r="J292" s="9"/>
+      <c r="K292" s="4"/>
+      <c r="L292" s="4"/>
+      <c r="M292" s="4"/>
+      <c r="N292" s="4"/>
+      <c r="O292" s="4"/>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="A302" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="8"/>
+      <c r="G302" s="8"/>
+      <c r="H302" s="8"/>
+      <c r="I302" s="8"/>
+      <c r="J302" s="8"/>
+      <c r="K302" s="8"/>
+      <c r="L302" s="8"/>
+      <c r="M302" s="8"/>
+      <c r="N302" s="8"/>
+      <c r="O302" s="8"/>
+    </row>
+    <row r="303" spans="1:15">
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="8"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+      <c r="J303" s="8"/>
+      <c r="K303" s="8"/>
+      <c r="L303" s="8"/>
+      <c r="M303" s="8"/>
+      <c r="N303" s="8"/>
+      <c r="O303" s="8"/>
+    </row>
+    <row r="304" spans="1:15">
+      <c r="A304" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2" t="s">
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F298" s="2" t="s">
+      <c r="F304" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2" t="s">
+      <c r="G304" s="2"/>
+      <c r="H304" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2" t="s">
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
-      <c r="N298" s="2"/>
-      <c r="O298" s="2"/>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="A299" s="3" t="s">
+      <c r="L304" s="2"/>
+      <c r="M304" s="2"/>
+      <c r="N304" s="2"/>
+      <c r="O304" s="2"/>
+    </row>
+    <row r="305" spans="1:15">
+      <c r="A305" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3" t="s">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F305" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3" t="s">
+      <c r="G305" s="3"/>
+      <c r="H305" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I299" s="3"/>
-      <c r="J299" s="3"/>
-      <c r="K299" s="3" t="s">
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L299" s="3"/>
-      <c r="M299" s="3" t="s">
+      <c r="L305" s="3"/>
+      <c r="M305" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N299" s="3"/>
-      <c r="O299" s="3"/>
-    </row>
-    <row r="300" spans="1:15">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
-      <c r="F300" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G300" s="4"/>
-      <c r="H300" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I300" s="4"/>
-      <c r="J300" s="4"/>
-      <c r="K300" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L300" s="4"/>
-      <c r="M300" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N300" s="4"/>
-      <c r="O300" s="4"/>
-    </row>
-    <row r="301" spans="1:15">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G301" s="4"/>
-      <c r="H301" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I301" s="4"/>
-      <c r="J301" s="4"/>
-      <c r="K301" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L301" s="4"/>
-      <c r="M301" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N301" s="4"/>
-      <c r="O301" s="4"/>
-    </row>
-    <row r="302" spans="1:15">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G302" s="4"/>
-      <c r="H302" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I302" s="4"/>
-      <c r="J302" s="4"/>
-      <c r="K302" s="4"/>
-      <c r="L302" s="4"/>
-      <c r="M302" s="4"/>
-      <c r="N302" s="4"/>
-      <c r="O302" s="4"/>
-    </row>
-    <row r="303" spans="1:15">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G303" s="4"/>
-      <c r="H303" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I303" s="4"/>
-      <c r="J303" s="4"/>
-      <c r="K303" s="4"/>
-      <c r="L303" s="4"/>
-      <c r="M303" s="4"/>
-      <c r="N303" s="4"/>
-      <c r="O303" s="4"/>
-    </row>
-    <row r="304" spans="1:15">
-      <c r="A304" s="5"/>
-      <c r="B304" s="5"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
-      <c r="E304" s="5"/>
-      <c r="F304" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G304" s="4"/>
-      <c r="H304" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I304" s="4"/>
-      <c r="J304" s="4"/>
-      <c r="K304" s="5"/>
-      <c r="L304" s="5"/>
-      <c r="M304" s="5"/>
-      <c r="N304" s="5"/>
-      <c r="O304" s="5"/>
-    </row>
-    <row r="305" spans="1:15">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G305" s="6"/>
-      <c r="H305" s="6"/>
-      <c r="I305" s="6"/>
-      <c r="J305" s="6"/>
-      <c r="K305" s="4"/>
-      <c r="L305" s="4"/>
-      <c r="M305" s="4"/>
-      <c r="N305" s="4"/>
-      <c r="O305" s="4"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="4"/>
@@ -4582,18 +4660,22 @@
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
-      <c r="F306" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G306" s="6"/>
-      <c r="H306" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I306" s="6"/>
-      <c r="J306" s="6"/>
-      <c r="K306" s="4"/>
+      <c r="F306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" s="4"/>
+      <c r="H306" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I306" s="4"/>
+      <c r="J306" s="4"/>
+      <c r="K306" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="4"/>
+      <c r="M306" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="N306" s="4"/>
       <c r="O306" s="4"/>
     </row>
@@ -4603,268 +4685,222 @@
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
-      <c r="F307" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G307" s="6"/>
-      <c r="H307" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I307" s="6"/>
-      <c r="J307" s="6"/>
+      <c r="F307" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G307" s="4"/>
+      <c r="H307" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
       <c r="M307" s="4"/>
       <c r="N307" s="4"/>
       <c r="O307" s="4"/>
     </row>
-    <row r="308" ht="13.15" customHeight="1" spans="1:15">
+    <row r="308" spans="1:15">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="F308" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G308" s="7"/>
-      <c r="H308" s="7"/>
-      <c r="I308" s="7"/>
-      <c r="J308" s="7"/>
+      <c r="F308" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G308" s="4"/>
+      <c r="H308" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I308" s="4"/>
+      <c r="J308" s="4"/>
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
       <c r="M308" s="4"/>
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
     </row>
-    <row r="309" customHeight="1" spans="1:15">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G309" s="7"/>
-      <c r="H309" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I309" s="7"/>
-      <c r="J309" s="7"/>
-      <c r="K309" s="4"/>
-      <c r="L309" s="4"/>
-      <c r="M309" s="4"/>
-      <c r="N309" s="4"/>
-      <c r="O309" s="4"/>
-    </row>
-    <row r="310" spans="1:15">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G310" s="7"/>
-      <c r="H310" s="7"/>
-      <c r="I310" s="7"/>
-      <c r="J310" s="7"/>
-      <c r="K310" s="4"/>
-      <c r="L310" s="4"/>
-      <c r="M310" s="4"/>
-      <c r="N310" s="4"/>
-      <c r="O310" s="4"/>
-    </row>
-    <row r="311" ht="45" customHeight="1" spans="1:15">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="7" t="s">
+    <row r="325" spans="1:15">
+      <c r="A325" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B325" s="8"/>
+      <c r="C325" s="8"/>
+      <c r="D325" s="8"/>
+      <c r="E325" s="8"/>
+      <c r="F325" s="8"/>
+      <c r="G325" s="8"/>
+      <c r="H325" s="8"/>
+      <c r="I325" s="8"/>
+      <c r="J325" s="8"/>
+      <c r="K325" s="8"/>
+      <c r="L325" s="8"/>
+      <c r="M325" s="8"/>
+      <c r="N325" s="8"/>
+      <c r="O325" s="8"/>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="8"/>
+      <c r="E326" s="8"/>
+      <c r="F326" s="8"/>
+      <c r="G326" s="8"/>
+      <c r="H326" s="8"/>
+      <c r="I326" s="8"/>
+      <c r="J326" s="8"/>
+      <c r="K326" s="8"/>
+      <c r="L326" s="8"/>
+      <c r="M326" s="8"/>
+      <c r="N326" s="8"/>
+      <c r="O326" s="8"/>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="A327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I327" s="2"/>
+      <c r="J327" s="2"/>
+      <c r="K327" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L327" s="2"/>
+      <c r="M327" s="2"/>
+      <c r="N327" s="2"/>
+      <c r="O327" s="2"/>
+    </row>
+    <row r="328" spans="1:15">
+      <c r="A328" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I328" s="3"/>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L328" s="3"/>
+      <c r="M328" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+    </row>
+    <row r="329" spans="1:15">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G329" s="4"/>
+      <c r="H329" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I329" s="4"/>
+      <c r="J329" s="4"/>
+      <c r="K329" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L329" s="4"/>
+      <c r="M329" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N329" s="4"/>
+      <c r="O329" s="4"/>
+    </row>
+    <row r="330" spans="1:15">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" s="4"/>
+      <c r="H330" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I330" s="4"/>
+      <c r="J330" s="4"/>
+      <c r="K330" s="4"/>
+      <c r="L330" s="4"/>
+      <c r="M330" s="4"/>
+      <c r="N330" s="4"/>
+      <c r="O330" s="4"/>
+    </row>
+    <row r="331" spans="1:15">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G311" s="7"/>
-      <c r="H311" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I311" s="9"/>
-      <c r="J311" s="9"/>
-      <c r="K311" s="4"/>
-      <c r="L311" s="4"/>
-      <c r="M311" s="4"/>
-      <c r="N311" s="4"/>
-      <c r="O311" s="4"/>
-    </row>
-    <row r="321" spans="1:15">
-      <c r="A321" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="G321" s="8"/>
-      <c r="H321" s="8"/>
-      <c r="I321" s="8"/>
-      <c r="J321" s="8"/>
-      <c r="K321" s="8"/>
-      <c r="L321" s="8"/>
-      <c r="M321" s="8"/>
-      <c r="N321" s="8"/>
-      <c r="O321" s="8"/>
-    </row>
-    <row r="322" spans="1:15">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
-      <c r="G322" s="8"/>
-      <c r="H322" s="8"/>
-      <c r="I322" s="8"/>
-      <c r="J322" s="8"/>
-      <c r="K322" s="8"/>
-      <c r="L322" s="8"/>
-      <c r="M322" s="8"/>
-      <c r="N322" s="8"/>
-      <c r="O322" s="8"/>
-    </row>
-    <row r="323" spans="1:15">
-      <c r="A323" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I323" s="2"/>
-      <c r="J323" s="2"/>
-      <c r="K323" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L323" s="2"/>
-      <c r="M323" s="2"/>
-      <c r="N323" s="2"/>
-      <c r="O323" s="2"/>
-    </row>
-    <row r="324" spans="1:15">
-      <c r="A324" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I324" s="3"/>
-      <c r="J324" s="3"/>
-      <c r="K324" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L324" s="3"/>
-      <c r="M324" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N324" s="3"/>
-      <c r="O324" s="3"/>
-    </row>
-    <row r="325" spans="1:15">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-      <c r="F325" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G325" s="4"/>
-      <c r="H325" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I325" s="4"/>
-      <c r="J325" s="4"/>
-      <c r="K325" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L325" s="4"/>
-      <c r="M325" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N325" s="4"/>
-      <c r="O325" s="4"/>
-    </row>
-    <row r="326" spans="1:15">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-      <c r="F326" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G326" s="4"/>
-      <c r="H326" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I326" s="4"/>
-      <c r="J326" s="4"/>
-      <c r="K326" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L326" s="4"/>
-      <c r="M326" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N326" s="4"/>
-      <c r="O326" s="4"/>
-    </row>
-    <row r="327" spans="1:15">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G327" s="4"/>
-      <c r="H327" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I327" s="4"/>
-      <c r="J327" s="4"/>
-      <c r="K327" s="4"/>
-      <c r="L327" s="4"/>
-      <c r="M327" s="4"/>
-      <c r="N327" s="4"/>
-      <c r="O327" s="4"/>
+      <c r="G331" s="4"/>
+      <c r="H331" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I331" s="4"/>
+      <c r="J331" s="4"/>
+      <c r="K331" s="4"/>
+      <c r="L331" s="4"/>
+      <c r="M331" s="4"/>
+      <c r="N331" s="4"/>
+      <c r="O331" s="4"/>
+    </row>
+    <row r="343" spans="1:15">
+      <c r="A343" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B343" s="8"/>
+      <c r="C343" s="8"/>
+      <c r="D343" s="8"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="8"/>
+      <c r="G343" s="8"/>
+      <c r="H343" s="8"/>
+      <c r="I343" s="8"/>
+      <c r="J343" s="8"/>
+      <c r="K343" s="8"/>
+      <c r="L343" s="8"/>
+      <c r="M343" s="8"/>
+      <c r="N343" s="8"/>
+      <c r="O343" s="8"/>
     </row>
     <row r="344" spans="1:15">
-      <c r="A344" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
@@ -4881,77 +4917,85 @@
       <c r="O344" s="8"/>
     </row>
     <row r="345" spans="1:15">
-      <c r="A345" s="8"/>
-      <c r="B345" s="8"/>
-      <c r="C345" s="8"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="8"/>
-      <c r="F345" s="8"/>
-      <c r="G345" s="8"/>
-      <c r="H345" s="8"/>
-      <c r="I345" s="8"/>
-      <c r="J345" s="8"/>
-      <c r="K345" s="8"/>
-      <c r="L345" s="8"/>
-      <c r="M345" s="8"/>
-      <c r="N345" s="8"/>
-      <c r="O345" s="8"/>
+      <c r="A345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I345" s="2"/>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L345" s="2"/>
+      <c r="M345" s="2"/>
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
     </row>
     <row r="346" spans="1:15">
-      <c r="A346" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I346" s="2"/>
-      <c r="J346" s="2"/>
-      <c r="K346" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L346" s="2"/>
-      <c r="M346" s="2"/>
-      <c r="N346" s="2"/>
-      <c r="O346" s="2"/>
+      <c r="A346" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L346" s="3"/>
+      <c r="M346" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
     </row>
     <row r="347" spans="1:15">
-      <c r="A347" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G347" s="3"/>
-      <c r="H347" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
-      <c r="K347" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L347" s="3"/>
-      <c r="M347" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N347" s="3"/>
-      <c r="O347" s="3"/>
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+      <c r="K347" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L347" s="4"/>
+      <c r="M347" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N347" s="4"/>
+      <c r="O347" s="4"/>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="4"/>
@@ -4960,21 +5004,17 @@
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="K348" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="K348" s="4"/>
       <c r="L348" s="4"/>
-      <c r="M348" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="M348" s="4"/>
       <c r="N348" s="4"/>
       <c r="O348" s="4"/>
     </row>
@@ -4985,47 +5025,340 @@
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="K349" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="K349" s="4"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="M349" s="4"/>
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>
     </row>
-    <row r="350" spans="1:15">
-      <c r="A350" s="4"/>
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
-      <c r="E350" s="4"/>
-      <c r="F350" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G350" s="4"/>
-      <c r="H350" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I350" s="4"/>
-      <c r="J350" s="4"/>
-      <c r="K350" s="4"/>
-      <c r="L350" s="4"/>
-      <c r="M350" s="4"/>
-      <c r="N350" s="4"/>
-      <c r="O350" s="4"/>
+    <row r="362" spans="1:15">
+      <c r="A362" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B362" s="8"/>
+      <c r="C362" s="8"/>
+      <c r="D362" s="8"/>
+      <c r="E362" s="8"/>
+      <c r="F362" s="8"/>
+      <c r="G362" s="8"/>
+      <c r="H362" s="8"/>
+      <c r="I362" s="8"/>
+      <c r="J362" s="8"/>
+      <c r="K362" s="8"/>
+      <c r="L362" s="8"/>
+      <c r="M362" s="8"/>
+      <c r="N362" s="8"/>
+      <c r="O362" s="8"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="8"/>
+      <c r="D363" s="8"/>
+      <c r="E363" s="8"/>
+      <c r="F363" s="8"/>
+      <c r="G363" s="8"/>
+      <c r="H363" s="8"/>
+      <c r="I363" s="8"/>
+      <c r="J363" s="8"/>
+      <c r="K363" s="8"/>
+      <c r="L363" s="8"/>
+      <c r="M363" s="8"/>
+      <c r="N363" s="8"/>
+      <c r="O363" s="8"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+      <c r="K364" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L364" s="2"/>
+      <c r="M364" s="2"/>
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="A365" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
+    </row>
+    <row r="366" spans="1:15">
+      <c r="A366" s="4"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G366" s="4"/>
+      <c r="H366" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I366" s="4"/>
+      <c r="J366" s="4"/>
+      <c r="K366" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L366" s="4"/>
+      <c r="M366" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N366" s="4"/>
+      <c r="O366" s="4"/>
+    </row>
+    <row r="367" spans="1:15">
+      <c r="A367" s="4"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G367" s="4"/>
+      <c r="H367" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I367" s="4"/>
+      <c r="J367" s="4"/>
+      <c r="K367" s="4"/>
+      <c r="L367" s="4"/>
+      <c r="M367" s="4"/>
+      <c r="N367" s="4"/>
+      <c r="O367" s="4"/>
+    </row>
+    <row r="368" spans="1:15">
+      <c r="A368" s="4"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G368" s="4"/>
+      <c r="H368" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I368" s="10"/>
+      <c r="J368" s="10"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+      <c r="M368" s="4"/>
+      <c r="N368" s="4"/>
+      <c r="O368" s="4"/>
+    </row>
+    <row r="381" spans="1:15">
+      <c r="A381" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="8"/>
+      <c r="G381" s="8"/>
+      <c r="H381" s="8"/>
+      <c r="I381" s="8"/>
+      <c r="J381" s="8"/>
+      <c r="K381" s="8"/>
+      <c r="L381" s="8"/>
+      <c r="M381" s="8"/>
+      <c r="N381" s="8"/>
+      <c r="O381" s="8"/>
+    </row>
+    <row r="382" spans="1:15">
+      <c r="A382" s="8"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="D382" s="8"/>
+      <c r="E382" s="8"/>
+      <c r="F382" s="8"/>
+      <c r="G382" s="8"/>
+      <c r="H382" s="8"/>
+      <c r="I382" s="8"/>
+      <c r="J382" s="8"/>
+      <c r="K382" s="8"/>
+      <c r="L382" s="8"/>
+      <c r="M382" s="8"/>
+      <c r="N382" s="8"/>
+      <c r="O382" s="8"/>
+    </row>
+    <row r="383" spans="1:15">
+      <c r="A383" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G383" s="2"/>
+      <c r="H383" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I383" s="2"/>
+      <c r="J383" s="2"/>
+      <c r="K383" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L383" s="2"/>
+      <c r="M383" s="2"/>
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+    </row>
+    <row r="384" spans="1:15">
+      <c r="A384" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G384" s="3"/>
+      <c r="H384" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I384" s="3"/>
+      <c r="J384" s="3"/>
+      <c r="K384" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L384" s="3"/>
+      <c r="M384" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N384" s="3"/>
+      <c r="O384" s="3"/>
+    </row>
+    <row r="385" spans="1:15">
+      <c r="A385" s="4"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G385" s="4"/>
+      <c r="H385" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I385" s="4"/>
+      <c r="J385" s="4"/>
+      <c r="K385" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L385" s="4"/>
+      <c r="M385" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N385" s="4"/>
+      <c r="O385" s="4"/>
+    </row>
+    <row r="386" spans="1:15">
+      <c r="A386" s="4"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G386" s="4"/>
+      <c r="H386" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I386" s="4"/>
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+      <c r="M386" s="4"/>
+      <c r="N386" s="4"/>
+      <c r="O386" s="4"/>
+    </row>
+    <row r="387" spans="1:15">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G387" s="4"/>
+      <c r="H387" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I387" s="10"/>
+      <c r="J387" s="10"/>
+      <c r="K387" s="4"/>
+      <c r="L387" s="4"/>
+      <c r="M387" s="4"/>
+      <c r="N387" s="4"/>
+      <c r="O387" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="476">
+  <mergeCells count="514">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5315,19 +5648,11 @@
     <mergeCell ref="H225:J225"/>
     <mergeCell ref="K225:L225"/>
     <mergeCell ref="M225:O225"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="H244:J244"/>
-    <mergeCell ref="K244:O244"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="H245:J245"/>
-    <mergeCell ref="K245:L245"/>
-    <mergeCell ref="M245:O245"/>
+    <mergeCell ref="A246:D246"/>
     <mergeCell ref="F246:G246"/>
     <mergeCell ref="H246:J246"/>
-    <mergeCell ref="K246:L246"/>
-    <mergeCell ref="M246:O246"/>
+    <mergeCell ref="K246:O246"/>
+    <mergeCell ref="A247:D247"/>
     <mergeCell ref="F247:G247"/>
     <mergeCell ref="H247:J247"/>
     <mergeCell ref="K247:L247"/>
@@ -5336,143 +5661,153 @@
     <mergeCell ref="H248:J248"/>
     <mergeCell ref="K248:L248"/>
     <mergeCell ref="M248:O248"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:J265"/>
-    <mergeCell ref="K265:O265"/>
-    <mergeCell ref="A266:D266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:J266"/>
-    <mergeCell ref="K266:L266"/>
-    <mergeCell ref="M266:O266"/>
-    <mergeCell ref="F267:G267"/>
-    <mergeCell ref="H267:J267"/>
-    <mergeCell ref="K267:L267"/>
-    <mergeCell ref="M267:O267"/>
-    <mergeCell ref="F268:G268"/>
-    <mergeCell ref="H268:J268"/>
-    <mergeCell ref="K268:L268"/>
-    <mergeCell ref="M268:O268"/>
-    <mergeCell ref="F269:G269"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="K269:L269"/>
-    <mergeCell ref="M269:O269"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="H270:J270"/>
-    <mergeCell ref="K270:L270"/>
-    <mergeCell ref="M270:O270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="H271:J271"/>
-    <mergeCell ref="K271:L271"/>
-    <mergeCell ref="M271:O271"/>
-    <mergeCell ref="F272:G272"/>
-    <mergeCell ref="H272:J272"/>
-    <mergeCell ref="K272:L272"/>
-    <mergeCell ref="M272:O272"/>
-    <mergeCell ref="F273:G273"/>
-    <mergeCell ref="H273:J273"/>
-    <mergeCell ref="K273:L273"/>
-    <mergeCell ref="M273:O273"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="H274:J274"/>
-    <mergeCell ref="K274:L274"/>
-    <mergeCell ref="M274:O274"/>
-    <mergeCell ref="F275:G275"/>
-    <mergeCell ref="H275:J275"/>
-    <mergeCell ref="K275:L275"/>
-    <mergeCell ref="M275:O275"/>
-    <mergeCell ref="F276:G276"/>
-    <mergeCell ref="H276:J276"/>
-    <mergeCell ref="K276:L276"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="F277:G277"/>
-    <mergeCell ref="H277:J277"/>
-    <mergeCell ref="K277:L277"/>
-    <mergeCell ref="M277:O277"/>
-    <mergeCell ref="F278:J278"/>
-    <mergeCell ref="K278:L278"/>
-    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="H249:J249"/>
+    <mergeCell ref="K249:L249"/>
+    <mergeCell ref="M249:O249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="H250:J250"/>
+    <mergeCell ref="K250:L250"/>
+    <mergeCell ref="M250:O250"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="H251:J251"/>
+    <mergeCell ref="K251:L251"/>
+    <mergeCell ref="M251:O251"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:J252"/>
+    <mergeCell ref="K252:L252"/>
+    <mergeCell ref="M252:O252"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:J253"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="M253:O253"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="H254:J254"/>
+    <mergeCell ref="K254:L254"/>
+    <mergeCell ref="M254:O254"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:J255"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="H256:J256"/>
+    <mergeCell ref="K256:L256"/>
+    <mergeCell ref="M256:O256"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="H257:J257"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:J258"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="M258:O258"/>
+    <mergeCell ref="F259:J259"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="M259:O259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="M260:O260"/>
+    <mergeCell ref="F261:J261"/>
+    <mergeCell ref="K261:L261"/>
+    <mergeCell ref="M261:O261"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="H262:J262"/>
+    <mergeCell ref="K262:L262"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="A279:D279"/>
     <mergeCell ref="F279:G279"/>
     <mergeCell ref="H279:J279"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="F280:J280"/>
+    <mergeCell ref="K279:O279"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="H280:J280"/>
     <mergeCell ref="K280:L280"/>
     <mergeCell ref="M280:O280"/>
     <mergeCell ref="F281:G281"/>
     <mergeCell ref="H281:J281"/>
     <mergeCell ref="K281:L281"/>
     <mergeCell ref="M281:O281"/>
-    <mergeCell ref="A298:D298"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:J298"/>
-    <mergeCell ref="K298:O298"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="M299:O299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="M300:O300"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="H301:J301"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="M301:O301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="H302:J302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="H303:J303"/>
-    <mergeCell ref="K303:L303"/>
-    <mergeCell ref="M303:O303"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="H282:J282"/>
+    <mergeCell ref="K282:L282"/>
+    <mergeCell ref="M282:O282"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="H283:J283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="H284:J284"/>
+    <mergeCell ref="K284:L284"/>
+    <mergeCell ref="M284:O284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="H285:J285"/>
+    <mergeCell ref="F286:J286"/>
+    <mergeCell ref="K286:L286"/>
+    <mergeCell ref="M286:O286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="H287:J287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="H288:J288"/>
+    <mergeCell ref="F289:J289"/>
+    <mergeCell ref="K289:L289"/>
+    <mergeCell ref="M289:O289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="H290:J290"/>
+    <mergeCell ref="K290:L290"/>
+    <mergeCell ref="M290:O290"/>
+    <mergeCell ref="F291:J291"/>
+    <mergeCell ref="K291:L291"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="K292:L292"/>
+    <mergeCell ref="M292:O292"/>
+    <mergeCell ref="A304:D304"/>
     <mergeCell ref="F304:G304"/>
     <mergeCell ref="H304:J304"/>
-    <mergeCell ref="F305:J305"/>
+    <mergeCell ref="K304:O304"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:J305"/>
     <mergeCell ref="K305:L305"/>
     <mergeCell ref="M305:O305"/>
     <mergeCell ref="F306:G306"/>
     <mergeCell ref="H306:J306"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="M306:O306"/>
     <mergeCell ref="F307:G307"/>
     <mergeCell ref="H307:J307"/>
-    <mergeCell ref="F308:J308"/>
-    <mergeCell ref="K308:L308"/>
-    <mergeCell ref="M308:O308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="H309:J309"/>
-    <mergeCell ref="K309:L309"/>
-    <mergeCell ref="M309:O309"/>
-    <mergeCell ref="F310:J310"/>
-    <mergeCell ref="K310:L310"/>
-    <mergeCell ref="M310:O310"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="H311:J311"/>
-    <mergeCell ref="K311:L311"/>
-    <mergeCell ref="M311:O311"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="H323:J323"/>
-    <mergeCell ref="K323:O323"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="H324:J324"/>
-    <mergeCell ref="K324:L324"/>
-    <mergeCell ref="M324:O324"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="H325:J325"/>
-    <mergeCell ref="K325:L325"/>
-    <mergeCell ref="M325:O325"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="H326:J326"/>
-    <mergeCell ref="K326:L326"/>
-    <mergeCell ref="M326:O326"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="M307:O307"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="H308:J308"/>
+    <mergeCell ref="A327:D327"/>
     <mergeCell ref="F327:G327"/>
     <mergeCell ref="H327:J327"/>
+    <mergeCell ref="K327:O327"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="F328:G328"/>
+    <mergeCell ref="H328:J328"/>
+    <mergeCell ref="K328:L328"/>
+    <mergeCell ref="M328:O328"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="H329:J329"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="M329:O329"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="H330:J330"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="M330:O330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:J331"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="H345:J345"/>
+    <mergeCell ref="K345:O345"/>
     <mergeCell ref="A346:D346"/>
     <mergeCell ref="F346:G346"/>
     <mergeCell ref="H346:J346"/>
-    <mergeCell ref="K346:O346"/>
-    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="K346:L346"/>
+    <mergeCell ref="M346:O346"/>
     <mergeCell ref="F347:G347"/>
     <mergeCell ref="H347:J347"/>
     <mergeCell ref="K347:L347"/>
@@ -5483,10 +5818,44 @@
     <mergeCell ref="M348:O348"/>
     <mergeCell ref="F349:G349"/>
     <mergeCell ref="H349:J349"/>
-    <mergeCell ref="K349:L349"/>
-    <mergeCell ref="M349:O349"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="H350:J350"/>
+    <mergeCell ref="A364:D364"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="H364:J364"/>
+    <mergeCell ref="K364:O364"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="H365:J365"/>
+    <mergeCell ref="K365:L365"/>
+    <mergeCell ref="M365:O365"/>
+    <mergeCell ref="F366:G366"/>
+    <mergeCell ref="H366:J366"/>
+    <mergeCell ref="K366:L366"/>
+    <mergeCell ref="M366:O366"/>
+    <mergeCell ref="F367:G367"/>
+    <mergeCell ref="H367:J367"/>
+    <mergeCell ref="K367:L367"/>
+    <mergeCell ref="M367:O367"/>
+    <mergeCell ref="F368:G368"/>
+    <mergeCell ref="H368:J368"/>
+    <mergeCell ref="A383:D383"/>
+    <mergeCell ref="F383:G383"/>
+    <mergeCell ref="H383:J383"/>
+    <mergeCell ref="K383:O383"/>
+    <mergeCell ref="A384:D384"/>
+    <mergeCell ref="F384:G384"/>
+    <mergeCell ref="H384:J384"/>
+    <mergeCell ref="K384:L384"/>
+    <mergeCell ref="M384:O384"/>
+    <mergeCell ref="F385:G385"/>
+    <mergeCell ref="H385:J385"/>
+    <mergeCell ref="K385:L385"/>
+    <mergeCell ref="M385:O385"/>
+    <mergeCell ref="F386:G386"/>
+    <mergeCell ref="H386:J386"/>
+    <mergeCell ref="K386:L386"/>
+    <mergeCell ref="M386:O386"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="H387:J387"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A40:O41"/>
@@ -5497,11 +5866,13 @@
     <mergeCell ref="A171:O172"/>
     <mergeCell ref="A197:O198"/>
     <mergeCell ref="A219:O220"/>
-    <mergeCell ref="A242:O243"/>
-    <mergeCell ref="A263:O264"/>
-    <mergeCell ref="A296:O297"/>
-    <mergeCell ref="A321:O322"/>
-    <mergeCell ref="A344:O345"/>
+    <mergeCell ref="A362:O363"/>
+    <mergeCell ref="A381:O382"/>
+    <mergeCell ref="A244:O245"/>
+    <mergeCell ref="A277:O278"/>
+    <mergeCell ref="A302:O303"/>
+    <mergeCell ref="A325:O326"/>
+    <mergeCell ref="A343:O344"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="9240"/>
+    <workbookView windowWidth="22515" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,8 +346,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -386,31 +386,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -424,11 +425,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,17 +447,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,21 +485,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -494,23 +501,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,43 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +591,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,91 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,17 +725,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,11 +749,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,24 +784,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +805,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -830,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +842,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1359,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:O387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="M385" sqref="M385:O385"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="10485"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="组织管理" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -345,9 +345,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -395,23 +395,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -439,17 +423,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,8 +454,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,6 +504,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,18 +561,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -615,12 +603,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -651,12 +633,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -675,7 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,19 +675,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,6 +749,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -760,15 +769,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +842,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1359,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:O387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="L396" sqref="L396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665"/>
+    <workbookView windowWidth="23025" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="组织管理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>登录后台系统</t>
   </si>
@@ -234,9 +234,6 @@
     <t>department(json数组)</t>
   </si>
   <si>
-    <t>部门Id(如果有"customer_visit"权限才需要提交此参数)</t>
-  </si>
-  <si>
     <t>添加部门成员</t>
   </si>
   <si>
@@ -337,6 +334,33 @@
   </si>
   <si>
     <t>path</t>
+  </si>
+  <si>
+    <t>获取可分配的角色列表</t>
+  </si>
+  <si>
+    <t>/s/listQmPermission.action</t>
+  </si>
+  <si>
+    <t>角色Id</t>
+  </si>
+  <si>
+    <t>permissionPid</t>
+  </si>
+  <si>
+    <t>角色代码</t>
+  </si>
+  <si>
+    <t>permissionName</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>permissionDescribe</t>
+  </si>
+  <si>
+    <t>角色描述</t>
   </si>
 </sst>
 </file>
@@ -344,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -387,6 +411,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -395,31 +434,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,6 +457,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -448,23 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,23 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,25 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +657,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,31 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,19 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,31 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +759,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -752,23 +791,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +838,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -830,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,91 +866,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,40 +959,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O387"/>
+  <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="L396" sqref="L396"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A397" sqref="A397:O398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3087,7 +3111,7 @@
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="9" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
@@ -3099,7 +3123,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -3162,7 +3186,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3246,7 +3270,7 @@
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -3288,7 +3312,7 @@
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
@@ -3330,7 +3354,7 @@
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
@@ -3351,7 +3375,7 @@
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -3372,7 +3396,7 @@
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
@@ -3393,7 +3417,7 @@
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
@@ -3410,7 +3434,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -3473,7 +3497,7 @@
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="11" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I188" s="11"/>
       <c r="J188" s="11"/>
@@ -3485,7 +3509,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3548,7 +3572,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3616,11 +3640,11 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L202" s="4"/>
       <c r="M202" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
@@ -3632,11 +3656,11 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -3648,7 +3672,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3711,7 +3735,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3779,11 +3803,11 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L224" s="4"/>
       <c r="M224" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
@@ -3795,11 +3819,11 @@
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
@@ -3811,7 +3835,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -3874,7 +3898,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -3979,7 +4003,7 @@
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
@@ -4021,7 +4045,7 @@
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
@@ -4063,7 +4087,7 @@
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
@@ -4084,7 +4108,7 @@
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
@@ -4105,7 +4129,7 @@
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
@@ -4126,7 +4150,7 @@
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
@@ -4143,7 +4167,7 @@
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
@@ -4206,7 +4230,7 @@
       </c>
       <c r="G262" s="6"/>
       <c r="H262" s="11" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="11"/>
@@ -4218,7 +4242,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -4281,7 +4305,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4349,11 +4373,11 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
       <c r="K282" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L282" s="4"/>
       <c r="M282" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N282" s="4"/>
       <c r="O282" s="4"/>
@@ -4451,7 +4475,7 @@
       </c>
       <c r="G287" s="6"/>
       <c r="H287" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
@@ -4552,7 +4576,7 @@
       </c>
       <c r="G292" s="7"/>
       <c r="H292" s="9" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
@@ -4564,7 +4588,7 @@
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -4627,7 +4651,7 @@
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -4723,7 +4747,7 @@
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -4786,7 +4810,7 @@
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -4882,7 +4906,7 @@
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -4945,7 +4969,7 @@
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -5041,7 +5065,7 @@
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -5104,7 +5128,7 @@
     </row>
     <row r="365" spans="1:15">
       <c r="A365" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -5188,7 +5212,7 @@
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I368" s="10"/>
       <c r="J368" s="10"/>
@@ -5200,7 +5224,7 @@
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -5263,7 +5287,7 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -5343,11 +5367,11 @@
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G387" s="4"/>
       <c r="H387" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I387" s="10"/>
       <c r="J387" s="10"/>
@@ -5357,8 +5381,228 @@
       <c r="N387" s="4"/>
       <c r="O387" s="4"/>
     </row>
+    <row r="397" spans="1:15">
+      <c r="A397" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B397" s="8"/>
+      <c r="C397" s="8"/>
+      <c r="D397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8"/>
+      <c r="G397" s="8"/>
+      <c r="H397" s="8"/>
+      <c r="I397" s="8"/>
+      <c r="J397" s="8"/>
+      <c r="K397" s="8"/>
+      <c r="L397" s="8"/>
+      <c r="M397" s="8"/>
+      <c r="N397" s="8"/>
+      <c r="O397" s="8"/>
+    </row>
+    <row r="398" spans="1:15">
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
+      <c r="C398" s="8"/>
+      <c r="D398" s="8"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="8"/>
+      <c r="G398" s="8"/>
+      <c r="H398" s="8"/>
+      <c r="I398" s="8"/>
+      <c r="J398" s="8"/>
+      <c r="K398" s="8"/>
+      <c r="L398" s="8"/>
+      <c r="M398" s="8"/>
+      <c r="N398" s="8"/>
+      <c r="O398" s="8"/>
+    </row>
+    <row r="399" spans="1:15">
+      <c r="A399" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G399" s="2"/>
+      <c r="H399" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I399" s="2"/>
+      <c r="J399" s="2"/>
+      <c r="K399" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L399" s="2"/>
+      <c r="M399" s="2"/>
+      <c r="N399" s="2"/>
+      <c r="O399" s="2"/>
+    </row>
+    <row r="400" spans="1:15">
+      <c r="A400" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="3"/>
+      <c r="E400" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G400" s="3"/>
+      <c r="H400" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I400" s="3"/>
+      <c r="J400" s="3"/>
+      <c r="K400" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L400" s="3"/>
+      <c r="M400" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N400" s="3"/>
+      <c r="O400" s="3"/>
+    </row>
+    <row r="401" spans="1:15">
+      <c r="A401" s="4"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G401" s="4"/>
+      <c r="H401" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I401" s="4"/>
+      <c r="J401" s="4"/>
+      <c r="K401" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L401" s="4"/>
+      <c r="M401" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N401" s="4"/>
+      <c r="O401" s="4"/>
+    </row>
+    <row r="402" spans="1:15">
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+      <c r="H402" s="4"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="4"/>
+      <c r="K402" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L402" s="4"/>
+      <c r="M402" s="4"/>
+      <c r="N402" s="4"/>
+      <c r="O402" s="4"/>
+    </row>
+    <row r="403" spans="1:15">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+      <c r="H403" s="4"/>
+      <c r="I403" s="4"/>
+      <c r="J403" s="4"/>
+      <c r="K403" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L403" s="4"/>
+      <c r="M403" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N403" s="4"/>
+      <c r="O403" s="4"/>
+    </row>
+    <row r="404" spans="1:15">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
+      <c r="H404" s="4"/>
+      <c r="I404" s="4"/>
+      <c r="J404" s="4"/>
+      <c r="K404" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L404" s="4"/>
+      <c r="M404" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N404" s="4"/>
+      <c r="O404" s="4"/>
+    </row>
+    <row r="405" spans="1:15">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4"/>
+      <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
+      <c r="H405" s="4"/>
+      <c r="I405" s="4"/>
+      <c r="J405" s="4"/>
+      <c r="K405" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L405" s="4"/>
+      <c r="M405" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N405" s="4"/>
+      <c r="O405" s="4"/>
+    </row>
+    <row r="406" spans="1:15">
+      <c r="A406" s="4"/>
+      <c r="B406" s="4"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
+      <c r="H406" s="4"/>
+      <c r="I406" s="4"/>
+      <c r="J406" s="4"/>
+      <c r="K406" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L406" s="4"/>
+      <c r="M406" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N406" s="4"/>
+      <c r="O406" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="514">
+  <mergeCells count="547">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5856,6 +6100,38 @@
     <mergeCell ref="M386:O386"/>
     <mergeCell ref="F387:G387"/>
     <mergeCell ref="H387:J387"/>
+    <mergeCell ref="A399:D399"/>
+    <mergeCell ref="F399:G399"/>
+    <mergeCell ref="H399:J399"/>
+    <mergeCell ref="K399:O399"/>
+    <mergeCell ref="A400:D400"/>
+    <mergeCell ref="F400:G400"/>
+    <mergeCell ref="H400:J400"/>
+    <mergeCell ref="K400:L400"/>
+    <mergeCell ref="M400:O400"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="H401:J401"/>
+    <mergeCell ref="K401:L401"/>
+    <mergeCell ref="M401:O401"/>
+    <mergeCell ref="F402:G402"/>
+    <mergeCell ref="H402:J402"/>
+    <mergeCell ref="K402:O402"/>
+    <mergeCell ref="F403:G403"/>
+    <mergeCell ref="H403:J403"/>
+    <mergeCell ref="K403:L403"/>
+    <mergeCell ref="M403:O403"/>
+    <mergeCell ref="F404:G404"/>
+    <mergeCell ref="H404:J404"/>
+    <mergeCell ref="K404:L404"/>
+    <mergeCell ref="M404:O404"/>
+    <mergeCell ref="F405:G405"/>
+    <mergeCell ref="H405:J405"/>
+    <mergeCell ref="K405:L405"/>
+    <mergeCell ref="M405:O405"/>
+    <mergeCell ref="F406:G406"/>
+    <mergeCell ref="H406:J406"/>
+    <mergeCell ref="K406:L406"/>
+    <mergeCell ref="M406:O406"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A40:O41"/>
@@ -5873,6 +6149,7 @@
     <mergeCell ref="A302:O303"/>
     <mergeCell ref="A325:O326"/>
     <mergeCell ref="A343:O344"/>
+    <mergeCell ref="A397:O398"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="22275" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="组织管理" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>departmentName</t>
   </si>
   <si>
-    <t>获取部门下成员列表</t>
+    <t>获取部门成员列表</t>
   </si>
   <si>
     <t>/s/findMemberList.action</t>
@@ -369,9 +369,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -410,6 +410,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -426,23 +502,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -458,50 +526,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -510,31 +534,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,25 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,60 +598,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,19 +633,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,6 +709,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -746,6 +746,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -788,39 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -846,6 +828,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -854,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,91 +866,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,40 +959,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A397" sqref="A397:O398"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89:O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -117,6 +117,9 @@
     <t>/s/findMemberList.action</t>
   </si>
   <si>
+    <t>部门Id(选填)</t>
+  </si>
+  <si>
     <t>部门成员的用户Id</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
   </si>
   <si>
     <t>permission(json数组)</t>
-  </si>
-  <si>
-    <t>department(json数组)</t>
   </si>
   <si>
     <t>添加部门成员</t>
@@ -369,9 +369,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -410,9 +410,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,34 +457,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,24 +485,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,21 +517,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -534,7 +534,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +585,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -598,42 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +651,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -703,42 +739,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -746,21 +746,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -803,17 +788,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,11 +817,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,91 +866,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,44 +959,44 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,13 +1024,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="39" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="21" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="36" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O406"/>
+  <dimension ref="A1:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89:O89"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2062,9 +2056,13 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
@@ -2093,7 +2091,7 @@
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -2110,11 +2108,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -2131,11 +2129,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -2152,11 +2150,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -2173,18 +2171,18 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2247,7 +2245,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2359,11 +2357,11 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -2380,7 +2378,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -2399,11 +2397,11 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -2420,11 +2418,11 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
@@ -2441,7 +2439,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -2460,18 +2458,18 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L97" s="7"/>
       <c r="M97" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2534,7 +2532,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2616,20 +2614,20 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -2646,11 +2644,11 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -2667,11 +2665,11 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -2688,11 +2686,11 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -2709,11 +2707,11 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -2730,11 +2728,11 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -2772,11 +2770,11 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -2793,7 +2791,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -2812,18 +2810,18 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L126" s="6"/>
       <c r="M126" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
     </row>
     <row r="141" customHeight="1" spans="1:15">
       <c r="A141" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2886,7 +2884,7 @@
     </row>
     <row r="144" customHeight="1" spans="1:15">
       <c r="A144" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2987,11 +2985,11 @@
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -3008,7 +3006,7 @@
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -3027,11 +3025,11 @@
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -3048,7 +3046,7 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
@@ -3067,11 +3065,11 @@
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -3081,137 +3079,143 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-    </row>
-    <row r="154" ht="45" customHeight="1" spans="1:15">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
+    <row r="169" spans="1:15">
+      <c r="A169" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="8"/>
+      <c r="O169" s="8"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="8"/>
+      <c r="A171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
+      <c r="A172" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N174" s="3"/>
-      <c r="O174" s="3"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="4"/>
@@ -3220,21 +3224,17 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="K175" s="4"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
@@ -3245,11 +3245,11 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -3266,14 +3266,14 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G177" s="4"/>
-      <c r="H177" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
+      <c r="H177" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
@@ -3287,14 +3287,14 @@
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
+      <c r="H178" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
@@ -3302,46 +3302,46 @@
       <c r="O178" s="4"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
       <c r="F179" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
+      <c r="H179" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
       <c r="F180" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
+      <c r="H180" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="5"/>
@@ -3350,14 +3350,14 @@
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G181" s="4"/>
-      <c r="H181" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
+      <c r="H181" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
@@ -3371,14 +3371,14 @@
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G182" s="4"/>
-      <c r="H182" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10"/>
+      <c r="H182" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
@@ -3391,15 +3391,13 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G183" s="4"/>
-      <c r="H183" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
+      <c r="F183" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
@@ -3412,518 +3410,526 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G184" s="4"/>
-      <c r="H184" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
+      <c r="F184" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
-      <c r="O185" s="5"/>
-    </row>
-    <row r="186" spans="1:15">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
-      <c r="O186" s="5"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:15">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-    </row>
-    <row r="188" ht="45" customHeight="1" spans="1:15">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" s="6"/>
-      <c r="H188" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
+    <row r="193" spans="1:15">
+      <c r="A193" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2" t="s">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F217" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2" t="s">
+      <c r="G217" s="2"/>
+      <c r="H217" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2" t="s">
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-    </row>
-    <row r="200" spans="1:15">
-      <c r="A200" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F218" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3" t="s">
+      <c r="G218" s="3"/>
+      <c r="H218" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3" t="s">
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3" t="s">
+      <c r="L218" s="3"/>
+      <c r="M218" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-    </row>
-    <row r="201" spans="1:15">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4" t="s">
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4" t="s">
+      <c r="G219" s="4"/>
+      <c r="H219" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4" t="s">
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4" t="s">
+      <c r="L219" s="4"/>
+      <c r="M219" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-    </row>
-    <row r="202" spans="1:15">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4" t="s">
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G202" s="4"/>
-      <c r="H202" s="4" t="s">
+      <c r="G220" s="4"/>
+      <c r="H220" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4" t="s">
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4" t="s">
+      <c r="L220" s="4"/>
+      <c r="M220" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-    </row>
-    <row r="203" spans="1:15">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4" t="s">
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-    </row>
-    <row r="219" spans="1:15">
-      <c r="A219" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-    </row>
-    <row r="220" spans="1:15">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-    </row>
-    <row r="221" spans="1:15">
-      <c r="A221" s="2" t="s">
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="8"/>
+      <c r="K240" s="8"/>
+      <c r="L240" s="8"/>
+      <c r="M240" s="8"/>
+      <c r="N240" s="8"/>
+      <c r="O240" s="8"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="8"/>
+      <c r="I241" s="8"/>
+      <c r="J241" s="8"/>
+      <c r="K241" s="8"/>
+      <c r="L241" s="8"/>
+      <c r="M241" s="8"/>
+      <c r="N241" s="8"/>
+      <c r="O241" s="8"/>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2" t="s">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="F242" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2" t="s">
+      <c r="G242" s="2"/>
+      <c r="H242" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2" t="s">
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-    </row>
-    <row r="222" spans="1:15">
-      <c r="A222" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3" t="s">
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="A243" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F243" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3" t="s">
+      <c r="G243" s="3"/>
+      <c r="H243" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3" t="s">
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3" t="s">
+      <c r="L243" s="3"/>
+      <c r="M243" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-    </row>
-    <row r="223" spans="1:15">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4" t="s">
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G223" s="4"/>
-      <c r="H223" s="4" t="s">
+      <c r="G244" s="4"/>
+      <c r="H244" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="4" t="s">
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4" t="s">
+      <c r="L244" s="4"/>
+      <c r="M244" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-    </row>
-    <row r="224" spans="1:15">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4" t="s">
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G224" s="4"/>
-      <c r="H224" s="4" t="s">
+      <c r="G245" s="4"/>
+      <c r="H245" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-    </row>
-    <row r="225" spans="1:15">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I225" s="4"/>
-      <c r="J225" s="4"/>
-      <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-    </row>
-    <row r="244" spans="1:15">
-      <c r="A244" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
-      <c r="K244" s="8"/>
-      <c r="L244" s="8"/>
-      <c r="M244" s="8"/>
-      <c r="N244" s="8"/>
-      <c r="O244" s="8"/>
-    </row>
-    <row r="245" spans="1:15">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8"/>
-      <c r="I245" s="8"/>
-      <c r="J245" s="8"/>
-      <c r="K245" s="8"/>
-      <c r="L245" s="8"/>
-      <c r="M245" s="8"/>
-      <c r="N245" s="8"/>
-      <c r="O245" s="8"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
+      <c r="O245" s="4"/>
     </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="4"/>
+      <c r="O246" s="4"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="4"/>
+      <c r="O247" s="4"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="4"/>
@@ -3932,21 +3938,17 @@
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="K248" s="4"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="M248" s="4"/>
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
     </row>
@@ -3957,14 +3959,14 @@
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G249" s="4"/>
-      <c r="H249" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I249" s="4"/>
-      <c r="J249" s="4"/>
+      <c r="H249" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
@@ -3978,14 +3980,14 @@
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G250" s="4"/>
-      <c r="H250" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
+      <c r="H250" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
@@ -3999,14 +4001,14 @@
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G251" s="4"/>
-      <c r="H251" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I251" s="4"/>
-      <c r="J251" s="4"/>
+      <c r="H251" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I251" s="9"/>
+      <c r="J251" s="9"/>
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
       <c r="M251" s="4"/>
@@ -4020,14 +4022,14 @@
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G252" s="4"/>
-      <c r="H252" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
+      <c r="H252" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
@@ -4041,14 +4043,14 @@
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G253" s="4"/>
-      <c r="H253" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
+      <c r="H253" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I253" s="9"/>
+      <c r="J253" s="9"/>
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
@@ -4062,14 +4064,14 @@
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G254" s="4"/>
-      <c r="H254" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I254" s="10"/>
-      <c r="J254" s="10"/>
+      <c r="H254" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
@@ -4082,15 +4084,13 @@
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
-      <c r="F255" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G255" s="4"/>
-      <c r="H255" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
+      <c r="F255" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
       <c r="M255" s="4"/>
@@ -4103,234 +4103,244 @@
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
-      <c r="F256" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G256" s="4"/>
-      <c r="H256" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I256" s="10"/>
-      <c r="J256" s="10"/>
+      <c r="F256" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
       <c r="O256" s="4"/>
     </row>
-    <row r="257" spans="1:15">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G257" s="4"/>
-      <c r="H257" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
-      <c r="M257" s="4"/>
-      <c r="N257" s="4"/>
-      <c r="O257" s="4"/>
-    </row>
-    <row r="258" spans="1:15">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G258" s="4"/>
-      <c r="H258" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I258" s="10"/>
-      <c r="J258" s="10"/>
-      <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
-      <c r="M258" s="4"/>
-      <c r="N258" s="4"/>
-      <c r="O258" s="4"/>
-    </row>
-    <row r="259" spans="1:15">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
-      <c r="I259" s="6"/>
-      <c r="J259" s="6"/>
-      <c r="K259" s="4"/>
-      <c r="L259" s="4"/>
-      <c r="M259" s="4"/>
-      <c r="N259" s="4"/>
-      <c r="O259" s="4"/>
-    </row>
-    <row r="260" spans="1:15">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I260" s="6"/>
-      <c r="J260" s="6"/>
-      <c r="K260" s="4"/>
-      <c r="L260" s="4"/>
-      <c r="M260" s="4"/>
-      <c r="N260" s="4"/>
-      <c r="O260" s="4"/>
-    </row>
-    <row r="261" customHeight="1" spans="1:15">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G261" s="6"/>
-      <c r="H261" s="6"/>
-      <c r="I261" s="6"/>
-      <c r="J261" s="6"/>
-      <c r="K261" s="4"/>
-      <c r="L261" s="4"/>
-      <c r="M261" s="4"/>
-      <c r="N261" s="4"/>
-      <c r="O261" s="4"/>
-    </row>
-    <row r="262" ht="45" customHeight="1" spans="1:15">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="6" t="s">
+    <row r="271" spans="1:15">
+      <c r="A271" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+      <c r="H271" s="8"/>
+      <c r="I271" s="8"/>
+      <c r="J271" s="8"/>
+      <c r="K271" s="8"/>
+      <c r="L271" s="8"/>
+      <c r="M271" s="8"/>
+      <c r="N271" s="8"/>
+      <c r="O271" s="8"/>
+    </row>
+    <row r="272" spans="1:15">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+      <c r="H272" s="8"/>
+      <c r="I272" s="8"/>
+      <c r="J272" s="8"/>
+      <c r="K272" s="8"/>
+      <c r="L272" s="8"/>
+      <c r="M272" s="8"/>
+      <c r="N272" s="8"/>
+      <c r="O272" s="8"/>
+    </row>
+    <row r="273" spans="1:15">
+      <c r="A273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+      <c r="N273" s="2"/>
+      <c r="O273" s="2"/>
+    </row>
+    <row r="274" spans="1:15">
+      <c r="A274" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+    </row>
+    <row r="275" spans="1:15">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N275" s="4"/>
+      <c r="O275" s="4"/>
+    </row>
+    <row r="276" spans="1:15">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N276" s="4"/>
+      <c r="O276" s="4"/>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G262" s="6"/>
-      <c r="H262" s="11" t="s">
+      <c r="G277" s="4"/>
+      <c r="H277" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I262" s="11"/>
-      <c r="J262" s="11"/>
-      <c r="K262" s="4"/>
-      <c r="L262" s="4"/>
-      <c r="M262" s="4"/>
-      <c r="N262" s="4"/>
-      <c r="O262" s="4"/>
-    </row>
-    <row r="277" spans="1:15">
-      <c r="A277" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-      <c r="H277" s="8"/>
-      <c r="I277" s="8"/>
-      <c r="J277" s="8"/>
-      <c r="K277" s="8"/>
-      <c r="L277" s="8"/>
-      <c r="M277" s="8"/>
-      <c r="N277" s="8"/>
-      <c r="O277" s="8"/>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
+      <c r="M277" s="4"/>
+      <c r="N277" s="4"/>
+      <c r="O277" s="4"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
-      <c r="H278" s="8"/>
-      <c r="I278" s="8"/>
-      <c r="J278" s="8"/>
-      <c r="K278" s="8"/>
-      <c r="L278" s="8"/>
-      <c r="M278" s="8"/>
-      <c r="N278" s="8"/>
-      <c r="O278" s="8"/>
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G278" s="4"/>
+      <c r="H278" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="4"/>
+      <c r="N278" s="4"/>
+      <c r="O278" s="4"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G279" s="4"/>
+      <c r="H279" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
     </row>
     <row r="280" spans="1:15">
-      <c r="A280" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
-      <c r="K280" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N280" s="3"/>
-      <c r="O280" s="3"/>
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="4"/>
+      <c r="N280" s="4"/>
+      <c r="O280" s="4"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="4"/>
@@ -4338,22 +4348,18 @@
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="F281" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G281" s="4"/>
-      <c r="H281" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I281" s="4"/>
-      <c r="J281" s="4"/>
-      <c r="K281" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F281" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="4"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="M281" s="4"/>
       <c r="N281" s="4"/>
       <c r="O281" s="4"/>
     </row>
@@ -4363,1246 +4369,1078 @@
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
-      <c r="F282" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G282" s="4"/>
-      <c r="H282" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="F282" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="4"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="M282" s="4"/>
       <c r="N282" s="4"/>
       <c r="O282" s="4"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" ht="13.15" customHeight="1" spans="1:15">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
-      <c r="F283" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G283" s="4"/>
-      <c r="H283" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
+      <c r="F283" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
       <c r="M283" s="4"/>
       <c r="N283" s="4"/>
       <c r="O283" s="4"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" customHeight="1" spans="1:15">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G284" s="4"/>
-      <c r="H284" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I284" s="4"/>
-      <c r="J284" s="4"/>
+      <c r="F284" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I284" s="7"/>
+      <c r="J284" s="7"/>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
       <c r="O284" s="4"/>
     </row>
-    <row r="285" spans="1:15">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
-      <c r="F285" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G285" s="4"/>
-      <c r="H285" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I285" s="4"/>
-      <c r="J285" s="4"/>
-      <c r="K285" s="5"/>
-      <c r="L285" s="5"/>
-      <c r="M285" s="5"/>
-      <c r="N285" s="5"/>
-      <c r="O285" s="5"/>
-    </row>
-    <row r="286" spans="1:15">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-      <c r="I286" s="6"/>
-      <c r="J286" s="6"/>
-      <c r="K286" s="4"/>
-      <c r="L286" s="4"/>
-      <c r="M286" s="4"/>
-      <c r="N286" s="4"/>
-      <c r="O286" s="4"/>
-    </row>
-    <row r="287" spans="1:15">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G287" s="6"/>
-      <c r="H287" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I287" s="6"/>
-      <c r="J287" s="6"/>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4"/>
-      <c r="N287" s="4"/>
-      <c r="O287" s="4"/>
-    </row>
-    <row r="288" spans="1:15">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G288" s="6"/>
-      <c r="H288" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I288" s="6"/>
-      <c r="J288" s="6"/>
-      <c r="K288" s="4"/>
-      <c r="L288" s="4"/>
-      <c r="M288" s="4"/>
-      <c r="N288" s="4"/>
-      <c r="O288" s="4"/>
-    </row>
-    <row r="289" ht="13.15" customHeight="1" spans="1:15">
-      <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G289" s="7"/>
-      <c r="H289" s="7"/>
-      <c r="I289" s="7"/>
-      <c r="J289" s="7"/>
-      <c r="K289" s="4"/>
-      <c r="L289" s="4"/>
-      <c r="M289" s="4"/>
-      <c r="N289" s="4"/>
-      <c r="O289" s="4"/>
-    </row>
-    <row r="290" customHeight="1" spans="1:15">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G290" s="7"/>
-      <c r="H290" s="7" t="s">
+    <row r="294" spans="1:15">
+      <c r="A294" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+      <c r="J294" s="8"/>
+      <c r="K294" s="8"/>
+      <c r="L294" s="8"/>
+      <c r="M294" s="8"/>
+      <c r="N294" s="8"/>
+      <c r="O294" s="8"/>
+    </row>
+    <row r="295" spans="1:15">
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="8"/>
+      <c r="J295" s="8"/>
+      <c r="K295" s="8"/>
+      <c r="L295" s="8"/>
+      <c r="M295" s="8"/>
+      <c r="N295" s="8"/>
+      <c r="O295" s="8"/>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="A296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L296" s="2"/>
+      <c r="M296" s="2"/>
+      <c r="N296" s="2"/>
+      <c r="O296" s="2"/>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G298" s="4"/>
+      <c r="H298" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I298" s="4"/>
+      <c r="J298" s="4"/>
+      <c r="K298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L298" s="4"/>
+      <c r="M298" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N298" s="4"/>
+      <c r="O298" s="4"/>
+    </row>
+    <row r="299" spans="1:15">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I299" s="4"/>
+      <c r="J299" s="4"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="4"/>
+      <c r="M299" s="4"/>
+      <c r="N299" s="4"/>
+      <c r="O299" s="4"/>
+    </row>
+    <row r="300" spans="1:15">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I300" s="4"/>
+      <c r="J300" s="4"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="4"/>
+      <c r="M300" s="4"/>
+      <c r="N300" s="4"/>
+      <c r="O300" s="4"/>
+    </row>
+    <row r="317" spans="1:15">
+      <c r="A317" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B317" s="8"/>
+      <c r="C317" s="8"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="8"/>
+      <c r="H317" s="8"/>
+      <c r="I317" s="8"/>
+      <c r="J317" s="8"/>
+      <c r="K317" s="8"/>
+      <c r="L317" s="8"/>
+      <c r="M317" s="8"/>
+      <c r="N317" s="8"/>
+      <c r="O317" s="8"/>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
+      <c r="C318" s="8"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="8"/>
+      <c r="F318" s="8"/>
+      <c r="G318" s="8"/>
+      <c r="H318" s="8"/>
+      <c r="I318" s="8"/>
+      <c r="J318" s="8"/>
+      <c r="K318" s="8"/>
+      <c r="L318" s="8"/>
+      <c r="M318" s="8"/>
+      <c r="N318" s="8"/>
+      <c r="O318" s="8"/>
+    </row>
+    <row r="319" spans="1:15">
+      <c r="A319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G319" s="2"/>
+      <c r="H319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I319" s="2"/>
+      <c r="J319" s="2"/>
+      <c r="K319" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L319" s="2"/>
+      <c r="M319" s="2"/>
+      <c r="N319" s="2"/>
+      <c r="O319" s="2"/>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="A320" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L320" s="3"/>
+      <c r="M320" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="4"/>
+      <c r="H321" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I321" s="4"/>
+      <c r="J321" s="4"/>
+      <c r="K321" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L321" s="4"/>
+      <c r="M321" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N321" s="4"/>
+      <c r="O321" s="4"/>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" s="4"/>
+      <c r="H322" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+      <c r="K322" s="4"/>
+      <c r="L322" s="4"/>
+      <c r="M322" s="4"/>
+      <c r="N322" s="4"/>
+      <c r="O322" s="4"/>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+      <c r="K323" s="4"/>
+      <c r="L323" s="4"/>
+      <c r="M323" s="4"/>
+      <c r="N323" s="4"/>
+      <c r="O323" s="4"/>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="A335" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8"/>
+      <c r="E335" s="8"/>
+      <c r="F335" s="8"/>
+      <c r="G335" s="8"/>
+      <c r="H335" s="8"/>
+      <c r="I335" s="8"/>
+      <c r="J335" s="8"/>
+      <c r="K335" s="8"/>
+      <c r="L335" s="8"/>
+      <c r="M335" s="8"/>
+      <c r="N335" s="8"/>
+      <c r="O335" s="8"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
+      <c r="C336" s="8"/>
+      <c r="D336" s="8"/>
+      <c r="E336" s="8"/>
+      <c r="F336" s="8"/>
+      <c r="G336" s="8"/>
+      <c r="H336" s="8"/>
+      <c r="I336" s="8"/>
+      <c r="J336" s="8"/>
+      <c r="K336" s="8"/>
+      <c r="L336" s="8"/>
+      <c r="M336" s="8"/>
+      <c r="N336" s="8"/>
+      <c r="O336" s="8"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I337" s="2"/>
+      <c r="J337" s="2"/>
+      <c r="K337" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L337" s="2"/>
+      <c r="M337" s="2"/>
+      <c r="N337" s="2"/>
+      <c r="O337" s="2"/>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G339" s="4"/>
+      <c r="H339" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I339" s="4"/>
+      <c r="J339" s="4"/>
+      <c r="K339" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L339" s="4"/>
+      <c r="M339" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N339" s="4"/>
+      <c r="O339" s="4"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G340" s="4"/>
+      <c r="H340" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I340" s="4"/>
+      <c r="J340" s="4"/>
+      <c r="K340" s="4"/>
+      <c r="L340" s="4"/>
+      <c r="M340" s="4"/>
+      <c r="N340" s="4"/>
+      <c r="O340" s="4"/>
+    </row>
+    <row r="341" spans="1:15">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G341" s="4"/>
+      <c r="H341" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+      <c r="K341" s="4"/>
+      <c r="L341" s="4"/>
+      <c r="M341" s="4"/>
+      <c r="N341" s="4"/>
+      <c r="O341" s="4"/>
+    </row>
+    <row r="354" spans="1:15">
+      <c r="A354" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="D354" s="8"/>
+      <c r="E354" s="8"/>
+      <c r="F354" s="8"/>
+      <c r="G354" s="8"/>
+      <c r="H354" s="8"/>
+      <c r="I354" s="8"/>
+      <c r="J354" s="8"/>
+      <c r="K354" s="8"/>
+      <c r="L354" s="8"/>
+      <c r="M354" s="8"/>
+      <c r="N354" s="8"/>
+      <c r="O354" s="8"/>
+    </row>
+    <row r="355" spans="1:15">
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
+      <c r="C355" s="8"/>
+      <c r="D355" s="8"/>
+      <c r="E355" s="8"/>
+      <c r="F355" s="8"/>
+      <c r="G355" s="8"/>
+      <c r="H355" s="8"/>
+      <c r="I355" s="8"/>
+      <c r="J355" s="8"/>
+      <c r="K355" s="8"/>
+      <c r="L355" s="8"/>
+      <c r="M355" s="8"/>
+      <c r="N355" s="8"/>
+      <c r="O355" s="8"/>
+    </row>
+    <row r="356" spans="1:15">
+      <c r="A356" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I356" s="2"/>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2"/>
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+    </row>
+    <row r="357" spans="1:15">
+      <c r="A357" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G357" s="3"/>
+      <c r="H357" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I357" s="3"/>
+      <c r="J357" s="3"/>
+      <c r="K357" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L357" s="3"/>
+      <c r="M357" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N357" s="3"/>
+      <c r="O357" s="3"/>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G358" s="4"/>
+      <c r="H358" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I358" s="4"/>
+      <c r="J358" s="4"/>
+      <c r="K358" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L358" s="4"/>
+      <c r="M358" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N358" s="4"/>
+      <c r="O358" s="4"/>
+    </row>
+    <row r="359" spans="1:15">
+      <c r="A359" s="4"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G359" s="4"/>
+      <c r="H359" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I359" s="4"/>
+      <c r="J359" s="4"/>
+      <c r="K359" s="4"/>
+      <c r="L359" s="4"/>
+      <c r="M359" s="4"/>
+      <c r="N359" s="4"/>
+      <c r="O359" s="4"/>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="A360" s="4"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G360" s="4"/>
+      <c r="H360" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I360" s="9"/>
+      <c r="J360" s="9"/>
+      <c r="K360" s="4"/>
+      <c r="L360" s="4"/>
+      <c r="M360" s="4"/>
+      <c r="N360" s="4"/>
+      <c r="O360" s="4"/>
+    </row>
+    <row r="373" spans="1:15">
+      <c r="A373" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B373" s="8"/>
+      <c r="C373" s="8"/>
+      <c r="D373" s="8"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="8"/>
+      <c r="G373" s="8"/>
+      <c r="H373" s="8"/>
+      <c r="I373" s="8"/>
+      <c r="J373" s="8"/>
+      <c r="K373" s="8"/>
+      <c r="L373" s="8"/>
+      <c r="M373" s="8"/>
+      <c r="N373" s="8"/>
+      <c r="O373" s="8"/>
+    </row>
+    <row r="374" spans="1:15">
+      <c r="A374" s="8"/>
+      <c r="B374" s="8"/>
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="8"/>
+      <c r="G374" s="8"/>
+      <c r="H374" s="8"/>
+      <c r="I374" s="8"/>
+      <c r="J374" s="8"/>
+      <c r="K374" s="8"/>
+      <c r="L374" s="8"/>
+      <c r="M374" s="8"/>
+      <c r="N374" s="8"/>
+      <c r="O374" s="8"/>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="A375" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
+      <c r="K375" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L375" s="2"/>
+      <c r="M375" s="2"/>
+      <c r="N375" s="2"/>
+      <c r="O375" s="2"/>
+    </row>
+    <row r="376" spans="1:15">
+      <c r="A376" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G376" s="3"/>
+      <c r="H376" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I376" s="3"/>
+      <c r="J376" s="3"/>
+      <c r="K376" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L376" s="3"/>
+      <c r="M376" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N376" s="3"/>
+      <c r="O376" s="3"/>
+    </row>
+    <row r="377" spans="1:15">
+      <c r="A377" s="4"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G377" s="4"/>
+      <c r="H377" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I377" s="4"/>
+      <c r="J377" s="4"/>
+      <c r="K377" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L377" s="4"/>
+      <c r="M377" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N377" s="4"/>
+      <c r="O377" s="4"/>
+    </row>
+    <row r="378" spans="1:15">
+      <c r="A378" s="4"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G378" s="4"/>
+      <c r="H378" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I378" s="4"/>
+      <c r="J378" s="4"/>
+      <c r="K378" s="4"/>
+      <c r="L378" s="4"/>
+      <c r="M378" s="4"/>
+      <c r="N378" s="4"/>
+      <c r="O378" s="4"/>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="A379" s="4"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G379" s="4"/>
+      <c r="H379" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I379" s="9"/>
+      <c r="J379" s="9"/>
+      <c r="K379" s="4"/>
+      <c r="L379" s="4"/>
+      <c r="M379" s="4"/>
+      <c r="N379" s="4"/>
+      <c r="O379" s="4"/>
+    </row>
+    <row r="389" spans="1:15">
+      <c r="A389" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B389" s="8"/>
+      <c r="C389" s="8"/>
+      <c r="D389" s="8"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="8"/>
+      <c r="G389" s="8"/>
+      <c r="H389" s="8"/>
+      <c r="I389" s="8"/>
+      <c r="J389" s="8"/>
+      <c r="K389" s="8"/>
+      <c r="L389" s="8"/>
+      <c r="M389" s="8"/>
+      <c r="N389" s="8"/>
+      <c r="O389" s="8"/>
+    </row>
+    <row r="390" spans="1:15">
+      <c r="A390" s="8"/>
+      <c r="B390" s="8"/>
+      <c r="C390" s="8"/>
+      <c r="D390" s="8"/>
+      <c r="E390" s="8"/>
+      <c r="F390" s="8"/>
+      <c r="G390" s="8"/>
+      <c r="H390" s="8"/>
+      <c r="I390" s="8"/>
+      <c r="J390" s="8"/>
+      <c r="K390" s="8"/>
+      <c r="L390" s="8"/>
+      <c r="M390" s="8"/>
+      <c r="N390" s="8"/>
+      <c r="O390" s="8"/>
+    </row>
+    <row r="391" spans="1:15">
+      <c r="A391" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G391" s="2"/>
+      <c r="H391" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I391" s="2"/>
+      <c r="J391" s="2"/>
+      <c r="K391" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L391" s="2"/>
+      <c r="M391" s="2"/>
+      <c r="N391" s="2"/>
+      <c r="O391" s="2"/>
+    </row>
+    <row r="392" spans="1:15">
+      <c r="A392" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I392" s="3"/>
+      <c r="J392" s="3"/>
+      <c r="K392" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N392" s="3"/>
+      <c r="O392" s="3"/>
+    </row>
+    <row r="393" spans="1:15">
+      <c r="A393" s="4"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G393" s="4"/>
+      <c r="H393" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I393" s="4"/>
+      <c r="J393" s="4"/>
+      <c r="K393" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L393" s="4"/>
+      <c r="M393" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N393" s="4"/>
+      <c r="O393" s="4"/>
+    </row>
+    <row r="394" spans="1:15">
+      <c r="A394" s="4"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
+      <c r="H394" s="4"/>
+      <c r="I394" s="4"/>
+      <c r="J394" s="4"/>
+      <c r="K394" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L394" s="4"/>
+      <c r="M394" s="4"/>
+      <c r="N394" s="4"/>
+      <c r="O394" s="4"/>
+    </row>
+    <row r="395" spans="1:15">
+      <c r="A395" s="4"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
+      <c r="I395" s="4"/>
+      <c r="J395" s="4"/>
+      <c r="K395" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I290" s="7"/>
-      <c r="J290" s="7"/>
-      <c r="K290" s="4"/>
-      <c r="L290" s="4"/>
-      <c r="M290" s="4"/>
-      <c r="N290" s="4"/>
-      <c r="O290" s="4"/>
-    </row>
-    <row r="291" spans="1:15">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G291" s="7"/>
-      <c r="H291" s="7"/>
-      <c r="I291" s="7"/>
-      <c r="J291" s="7"/>
-      <c r="K291" s="4"/>
-      <c r="L291" s="4"/>
-      <c r="M291" s="4"/>
-      <c r="N291" s="4"/>
-      <c r="O291" s="4"/>
-    </row>
-    <row r="292" ht="45" customHeight="1" spans="1:15">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="7"/>
-      <c r="H292" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I292" s="9"/>
-      <c r="J292" s="9"/>
-      <c r="K292" s="4"/>
-      <c r="L292" s="4"/>
-      <c r="M292" s="4"/>
-      <c r="N292" s="4"/>
-      <c r="O292" s="4"/>
-    </row>
-    <row r="302" spans="1:15">
-      <c r="A302" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
-      <c r="H302" s="8"/>
-      <c r="I302" s="8"/>
-      <c r="J302" s="8"/>
-      <c r="K302" s="8"/>
-      <c r="L302" s="8"/>
-      <c r="M302" s="8"/>
-      <c r="N302" s="8"/>
-      <c r="O302" s="8"/>
-    </row>
-    <row r="303" spans="1:15">
-      <c r="A303" s="8"/>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8"/>
-      <c r="H303" s="8"/>
-      <c r="I303" s="8"/>
-      <c r="J303" s="8"/>
-      <c r="K303" s="8"/>
-      <c r="L303" s="8"/>
-      <c r="M303" s="8"/>
-      <c r="N303" s="8"/>
-      <c r="O303" s="8"/>
-    </row>
-    <row r="304" spans="1:15">
-      <c r="A304" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I304" s="2"/>
-      <c r="J304" s="2"/>
-      <c r="K304" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L304" s="2"/>
-      <c r="M304" s="2"/>
-      <c r="N304" s="2"/>
-      <c r="O304" s="2"/>
-    </row>
-    <row r="305" spans="1:15">
-      <c r="A305" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I305" s="3"/>
-      <c r="J305" s="3"/>
-      <c r="K305" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L305" s="3"/>
-      <c r="M305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N305" s="3"/>
-      <c r="O305" s="3"/>
-    </row>
-    <row r="306" spans="1:15">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G306" s="4"/>
-      <c r="H306" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I306" s="4"/>
-      <c r="J306" s="4"/>
-      <c r="K306" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L306" s="4"/>
-      <c r="M306" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N306" s="4"/>
-      <c r="O306" s="4"/>
-    </row>
-    <row r="307" spans="1:15">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G307" s="4"/>
-      <c r="H307" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I307" s="4"/>
-      <c r="J307" s="4"/>
-      <c r="K307" s="4"/>
-      <c r="L307" s="4"/>
-      <c r="M307" s="4"/>
-      <c r="N307" s="4"/>
-      <c r="O307" s="4"/>
-    </row>
-    <row r="308" spans="1:15">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G308" s="4"/>
-      <c r="H308" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I308" s="4"/>
-      <c r="J308" s="4"/>
-      <c r="K308" s="4"/>
-      <c r="L308" s="4"/>
-      <c r="M308" s="4"/>
-      <c r="N308" s="4"/>
-      <c r="O308" s="4"/>
-    </row>
-    <row r="325" spans="1:15">
-      <c r="A325" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
-      <c r="G325" s="8"/>
-      <c r="H325" s="8"/>
-      <c r="I325" s="8"/>
-      <c r="J325" s="8"/>
-      <c r="K325" s="8"/>
-      <c r="L325" s="8"/>
-      <c r="M325" s="8"/>
-      <c r="N325" s="8"/>
-      <c r="O325" s="8"/>
-    </row>
-    <row r="326" spans="1:15">
-      <c r="A326" s="8"/>
-      <c r="B326" s="8"/>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
-      <c r="G326" s="8"/>
-      <c r="H326" s="8"/>
-      <c r="I326" s="8"/>
-      <c r="J326" s="8"/>
-      <c r="K326" s="8"/>
-      <c r="L326" s="8"/>
-      <c r="M326" s="8"/>
-      <c r="N326" s="8"/>
-      <c r="O326" s="8"/>
-    </row>
-    <row r="327" spans="1:15">
-      <c r="A327" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I327" s="2"/>
-      <c r="J327" s="2"/>
-      <c r="K327" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L327" s="2"/>
-      <c r="M327" s="2"/>
-      <c r="N327" s="2"/>
-      <c r="O327" s="2"/>
-    </row>
-    <row r="328" spans="1:15">
-      <c r="A328" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I328" s="3"/>
-      <c r="J328" s="3"/>
-      <c r="K328" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L328" s="3"/>
-      <c r="M328" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N328" s="3"/>
-      <c r="O328" s="3"/>
-    </row>
-    <row r="329" spans="1:15">
-      <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G329" s="4"/>
-      <c r="H329" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I329" s="4"/>
-      <c r="J329" s="4"/>
-      <c r="K329" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L329" s="4"/>
-      <c r="M329" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N329" s="4"/>
-      <c r="O329" s="4"/>
-    </row>
-    <row r="330" spans="1:15">
-      <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G330" s="4"/>
-      <c r="H330" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I330" s="4"/>
-      <c r="J330" s="4"/>
-      <c r="K330" s="4"/>
-      <c r="L330" s="4"/>
-      <c r="M330" s="4"/>
-      <c r="N330" s="4"/>
-      <c r="O330" s="4"/>
-    </row>
-    <row r="331" spans="1:15">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G331" s="4"/>
-      <c r="H331" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I331" s="4"/>
-      <c r="J331" s="4"/>
-      <c r="K331" s="4"/>
-      <c r="L331" s="4"/>
-      <c r="M331" s="4"/>
-      <c r="N331" s="4"/>
-      <c r="O331" s="4"/>
-    </row>
-    <row r="343" spans="1:15">
-      <c r="A343" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B343" s="8"/>
-      <c r="C343" s="8"/>
-      <c r="D343" s="8"/>
-      <c r="E343" s="8"/>
-      <c r="F343" s="8"/>
-      <c r="G343" s="8"/>
-      <c r="H343" s="8"/>
-      <c r="I343" s="8"/>
-      <c r="J343" s="8"/>
-      <c r="K343" s="8"/>
-      <c r="L343" s="8"/>
-      <c r="M343" s="8"/>
-      <c r="N343" s="8"/>
-      <c r="O343" s="8"/>
-    </row>
-    <row r="344" spans="1:15">
-      <c r="A344" s="8"/>
-      <c r="B344" s="8"/>
-      <c r="C344" s="8"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="8"/>
-      <c r="F344" s="8"/>
-      <c r="G344" s="8"/>
-      <c r="H344" s="8"/>
-      <c r="I344" s="8"/>
-      <c r="J344" s="8"/>
-      <c r="K344" s="8"/>
-      <c r="L344" s="8"/>
-      <c r="M344" s="8"/>
-      <c r="N344" s="8"/>
-      <c r="O344" s="8"/>
-    </row>
-    <row r="345" spans="1:15">
-      <c r="A345" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I345" s="2"/>
-      <c r="J345" s="2"/>
-      <c r="K345" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L345" s="2"/>
-      <c r="M345" s="2"/>
-      <c r="N345" s="2"/>
-      <c r="O345" s="2"/>
-    </row>
-    <row r="346" spans="1:15">
-      <c r="A346" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G346" s="3"/>
-      <c r="H346" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I346" s="3"/>
-      <c r="J346" s="3"/>
-      <c r="K346" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L346" s="3"/>
-      <c r="M346" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N346" s="3"/>
-      <c r="O346" s="3"/>
-    </row>
-    <row r="347" spans="1:15">
-      <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
-      <c r="E347" s="4"/>
-      <c r="F347" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G347" s="4"/>
-      <c r="H347" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I347" s="4"/>
-      <c r="J347" s="4"/>
-      <c r="K347" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L347" s="4"/>
-      <c r="M347" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N347" s="4"/>
-      <c r="O347" s="4"/>
-    </row>
-    <row r="348" spans="1:15">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G348" s="4"/>
-      <c r="H348" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I348" s="4"/>
-      <c r="J348" s="4"/>
-      <c r="K348" s="4"/>
-      <c r="L348" s="4"/>
-      <c r="M348" s="4"/>
-      <c r="N348" s="4"/>
-      <c r="O348" s="4"/>
-    </row>
-    <row r="349" spans="1:15">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G349" s="4"/>
-      <c r="H349" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I349" s="4"/>
-      <c r="J349" s="4"/>
-      <c r="K349" s="4"/>
-      <c r="L349" s="4"/>
-      <c r="M349" s="4"/>
-      <c r="N349" s="4"/>
-      <c r="O349" s="4"/>
-    </row>
-    <row r="362" spans="1:15">
-      <c r="A362" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B362" s="8"/>
-      <c r="C362" s="8"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="8"/>
-      <c r="F362" s="8"/>
-      <c r="G362" s="8"/>
-      <c r="H362" s="8"/>
-      <c r="I362" s="8"/>
-      <c r="J362" s="8"/>
-      <c r="K362" s="8"/>
-      <c r="L362" s="8"/>
-      <c r="M362" s="8"/>
-      <c r="N362" s="8"/>
-      <c r="O362" s="8"/>
-    </row>
-    <row r="363" spans="1:15">
-      <c r="A363" s="8"/>
-      <c r="B363" s="8"/>
-      <c r="C363" s="8"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="8"/>
-      <c r="F363" s="8"/>
-      <c r="G363" s="8"/>
-      <c r="H363" s="8"/>
-      <c r="I363" s="8"/>
-      <c r="J363" s="8"/>
-      <c r="K363" s="8"/>
-      <c r="L363" s="8"/>
-      <c r="M363" s="8"/>
-      <c r="N363" s="8"/>
-      <c r="O363" s="8"/>
-    </row>
-    <row r="364" spans="1:15">
-      <c r="A364" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I364" s="2"/>
-      <c r="J364" s="2"/>
-      <c r="K364" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L364" s="2"/>
-      <c r="M364" s="2"/>
-      <c r="N364" s="2"/>
-      <c r="O364" s="2"/>
-    </row>
-    <row r="365" spans="1:15">
-      <c r="A365" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B365" s="3"/>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
-      <c r="K365" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L365" s="3"/>
-      <c r="M365" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N365" s="3"/>
-      <c r="O365" s="3"/>
-    </row>
-    <row r="366" spans="1:15">
-      <c r="A366" s="4"/>
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
-      <c r="E366" s="4"/>
-      <c r="F366" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G366" s="4"/>
-      <c r="H366" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I366" s="4"/>
-      <c r="J366" s="4"/>
-      <c r="K366" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L366" s="4"/>
-      <c r="M366" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N366" s="4"/>
-      <c r="O366" s="4"/>
-    </row>
-    <row r="367" spans="1:15">
-      <c r="A367" s="4"/>
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G367" s="4"/>
-      <c r="H367" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I367" s="4"/>
-      <c r="J367" s="4"/>
-      <c r="K367" s="4"/>
-      <c r="L367" s="4"/>
-      <c r="M367" s="4"/>
-      <c r="N367" s="4"/>
-      <c r="O367" s="4"/>
-    </row>
-    <row r="368" spans="1:15">
-      <c r="A368" s="4"/>
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
-      <c r="E368" s="4"/>
-      <c r="F368" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G368" s="4"/>
-      <c r="H368" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I368" s="10"/>
-      <c r="J368" s="10"/>
-      <c r="K368" s="4"/>
-      <c r="L368" s="4"/>
-      <c r="M368" s="4"/>
-      <c r="N368" s="4"/>
-      <c r="O368" s="4"/>
-    </row>
-    <row r="381" spans="1:15">
-      <c r="A381" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B381" s="8"/>
-      <c r="C381" s="8"/>
-      <c r="D381" s="8"/>
-      <c r="E381" s="8"/>
-      <c r="F381" s="8"/>
-      <c r="G381" s="8"/>
-      <c r="H381" s="8"/>
-      <c r="I381" s="8"/>
-      <c r="J381" s="8"/>
-      <c r="K381" s="8"/>
-      <c r="L381" s="8"/>
-      <c r="M381" s="8"/>
-      <c r="N381" s="8"/>
-      <c r="O381" s="8"/>
-    </row>
-    <row r="382" spans="1:15">
-      <c r="A382" s="8"/>
-      <c r="B382" s="8"/>
-      <c r="C382" s="8"/>
-      <c r="D382" s="8"/>
-      <c r="E382" s="8"/>
-      <c r="F382" s="8"/>
-      <c r="G382" s="8"/>
-      <c r="H382" s="8"/>
-      <c r="I382" s="8"/>
-      <c r="J382" s="8"/>
-      <c r="K382" s="8"/>
-      <c r="L382" s="8"/>
-      <c r="M382" s="8"/>
-      <c r="N382" s="8"/>
-      <c r="O382" s="8"/>
-    </row>
-    <row r="383" spans="1:15">
-      <c r="A383" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G383" s="2"/>
-      <c r="H383" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I383" s="2"/>
-      <c r="J383" s="2"/>
-      <c r="K383" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L383" s="2"/>
-      <c r="M383" s="2"/>
-      <c r="N383" s="2"/>
-      <c r="O383" s="2"/>
-    </row>
-    <row r="384" spans="1:15">
-      <c r="A384" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B384" s="3"/>
-      <c r="C384" s="3"/>
-      <c r="D384" s="3"/>
-      <c r="E384" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
-      <c r="K384" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L384" s="3"/>
-      <c r="M384" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N384" s="3"/>
-      <c r="O384" s="3"/>
-    </row>
-    <row r="385" spans="1:15">
-      <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
-      <c r="F385" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G385" s="4"/>
-      <c r="H385" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I385" s="4"/>
-      <c r="J385" s="4"/>
-      <c r="K385" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L385" s="4"/>
-      <c r="M385" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N385" s="4"/>
-      <c r="O385" s="4"/>
-    </row>
-    <row r="386" spans="1:15">
-      <c r="A386" s="4"/>
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G386" s="4"/>
-      <c r="H386" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I386" s="4"/>
-      <c r="J386" s="4"/>
-      <c r="K386" s="4"/>
-      <c r="L386" s="4"/>
-      <c r="M386" s="4"/>
-      <c r="N386" s="4"/>
-      <c r="O386" s="4"/>
-    </row>
-    <row r="387" spans="1:15">
-      <c r="A387" s="4"/>
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G387" s="4"/>
-      <c r="H387" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I387" s="10"/>
-      <c r="J387" s="10"/>
-      <c r="K387" s="4"/>
-      <c r="L387" s="4"/>
-      <c r="M387" s="4"/>
-      <c r="N387" s="4"/>
-      <c r="O387" s="4"/>
+      <c r="L395" s="4"/>
+      <c r="M395" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N395" s="4"/>
+      <c r="O395" s="4"/>
+    </row>
+    <row r="396" spans="1:15">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
+      <c r="I396" s="4"/>
+      <c r="J396" s="4"/>
+      <c r="K396" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L396" s="4"/>
+      <c r="M396" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N396" s="4"/>
+      <c r="O396" s="4"/>
     </row>
     <row r="397" spans="1:15">
-      <c r="A397" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B397" s="8"/>
-      <c r="C397" s="8"/>
-      <c r="D397" s="8"/>
-      <c r="E397" s="8"/>
-      <c r="F397" s="8"/>
-      <c r="G397" s="8"/>
-      <c r="H397" s="8"/>
-      <c r="I397" s="8"/>
-      <c r="J397" s="8"/>
-      <c r="K397" s="8"/>
-      <c r="L397" s="8"/>
-      <c r="M397" s="8"/>
-      <c r="N397" s="8"/>
-      <c r="O397" s="8"/>
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+      <c r="H397" s="4"/>
+      <c r="I397" s="4"/>
+      <c r="J397" s="4"/>
+      <c r="K397" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L397" s="4"/>
+      <c r="M397" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N397" s="4"/>
+      <c r="O397" s="4"/>
     </row>
     <row r="398" spans="1:15">
-      <c r="A398" s="8"/>
-      <c r="B398" s="8"/>
-      <c r="C398" s="8"/>
-      <c r="D398" s="8"/>
-      <c r="E398" s="8"/>
-      <c r="F398" s="8"/>
-      <c r="G398" s="8"/>
-      <c r="H398" s="8"/>
-      <c r="I398" s="8"/>
-      <c r="J398" s="8"/>
-      <c r="K398" s="8"/>
-      <c r="L398" s="8"/>
-      <c r="M398" s="8"/>
-      <c r="N398" s="8"/>
-      <c r="O398" s="8"/>
-    </row>
-    <row r="399" spans="1:15">
-      <c r="A399" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F399" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G399" s="2"/>
-      <c r="H399" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I399" s="2"/>
-      <c r="J399" s="2"/>
-      <c r="K399" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L399" s="2"/>
-      <c r="M399" s="2"/>
-      <c r="N399" s="2"/>
-      <c r="O399" s="2"/>
-    </row>
-    <row r="400" spans="1:15">
-      <c r="A400" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
-      <c r="D400" s="3"/>
-      <c r="E400" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F400" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I400" s="3"/>
-      <c r="J400" s="3"/>
-      <c r="K400" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L400" s="3"/>
-      <c r="M400" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N400" s="3"/>
-      <c r="O400" s="3"/>
-    </row>
-    <row r="401" spans="1:15">
-      <c r="A401" s="4"/>
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
-      <c r="E401" s="4"/>
-      <c r="F401" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G401" s="4"/>
-      <c r="H401" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I401" s="4"/>
-      <c r="J401" s="4"/>
-      <c r="K401" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L401" s="4"/>
-      <c r="M401" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N401" s="4"/>
-      <c r="O401" s="4"/>
-    </row>
-    <row r="402" spans="1:15">
-      <c r="A402" s="4"/>
-      <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="4"/>
-      <c r="F402" s="4"/>
-      <c r="G402" s="4"/>
-      <c r="H402" s="4"/>
-      <c r="I402" s="4"/>
-      <c r="J402" s="4"/>
-      <c r="K402" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L402" s="4"/>
-      <c r="M402" s="4"/>
-      <c r="N402" s="4"/>
-      <c r="O402" s="4"/>
-    </row>
-    <row r="403" spans="1:15">
-      <c r="A403" s="4"/>
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
-      <c r="F403" s="4"/>
-      <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
-      <c r="I403" s="4"/>
-      <c r="J403" s="4"/>
-      <c r="K403" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L403" s="4"/>
-      <c r="M403" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N403" s="4"/>
-      <c r="O403" s="4"/>
-    </row>
-    <row r="404" spans="1:15">
-      <c r="A404" s="4"/>
-      <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
-      <c r="F404" s="4"/>
-      <c r="G404" s="4"/>
-      <c r="H404" s="4"/>
-      <c r="I404" s="4"/>
-      <c r="J404" s="4"/>
-      <c r="K404" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L404" s="4"/>
-      <c r="M404" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N404" s="4"/>
-      <c r="O404" s="4"/>
-    </row>
-    <row r="405" spans="1:15">
-      <c r="A405" s="4"/>
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
-      <c r="F405" s="4"/>
-      <c r="G405" s="4"/>
-      <c r="H405" s="4"/>
-      <c r="I405" s="4"/>
-      <c r="J405" s="4"/>
-      <c r="K405" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L405" s="4"/>
-      <c r="M405" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N405" s="4"/>
-      <c r="O405" s="4"/>
-    </row>
-    <row r="406" spans="1:15">
-      <c r="A406" s="4"/>
-      <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="4"/>
-      <c r="G406" s="4"/>
-      <c r="H406" s="4"/>
-      <c r="I406" s="4"/>
-      <c r="J406" s="4"/>
-      <c r="K406" s="4" t="s">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="4"/>
+      <c r="K398" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L406" s="4"/>
-      <c r="M406" s="4" t="s">
+      <c r="L398" s="4"/>
+      <c r="M398" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N406" s="4"/>
-      <c r="O406" s="4"/>
+      <c r="N398" s="4"/>
+      <c r="O398" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="521">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5678,6 +5516,8 @@
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="K66:O66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:O67"/>
     <mergeCell ref="K68:L68"/>
@@ -5793,29 +5633,30 @@
     <mergeCell ref="H152:J152"/>
     <mergeCell ref="K152:L152"/>
     <mergeCell ref="M152:O152"/>
-    <mergeCell ref="F153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="M153:O153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:O154"/>
-    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="H171:J171"/>
+    <mergeCell ref="K171:O171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:O172"/>
     <mergeCell ref="F173:G173"/>
     <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:O173"/>
-    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M173:O173"/>
     <mergeCell ref="F174:G174"/>
     <mergeCell ref="H174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:O174"/>
+    <mergeCell ref="K174:O174"/>
     <mergeCell ref="F175:G175"/>
     <mergeCell ref="H175:J175"/>
     <mergeCell ref="K175:L175"/>
     <mergeCell ref="M175:O175"/>
     <mergeCell ref="F176:G176"/>
     <mergeCell ref="H176:J176"/>
-    <mergeCell ref="K176:O176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:O176"/>
     <mergeCell ref="F177:G177"/>
     <mergeCell ref="H177:J177"/>
     <mergeCell ref="K177:L177"/>
@@ -5826,77 +5667,78 @@
     <mergeCell ref="M178:O178"/>
     <mergeCell ref="F179:G179"/>
     <mergeCell ref="H179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:O179"/>
     <mergeCell ref="F180:G180"/>
     <mergeCell ref="H180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:O180"/>
     <mergeCell ref="F181:G181"/>
     <mergeCell ref="H181:J181"/>
     <mergeCell ref="F182:G182"/>
     <mergeCell ref="H182:J182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="F183:J183"/>
     <mergeCell ref="F184:G184"/>
     <mergeCell ref="H184:J184"/>
-    <mergeCell ref="F185:J185"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="F187:J187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:O187"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:J188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="H195:J195"/>
+    <mergeCell ref="K195:O195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="H196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:O197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:O198"/>
     <mergeCell ref="F199:G199"/>
     <mergeCell ref="H199:J199"/>
-    <mergeCell ref="K199:O199"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:O200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:O201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:O202"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="H203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:O203"/>
-    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:O199"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="H217:J217"/>
+    <mergeCell ref="K217:O217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="M218:O218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:O219"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="H220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="M220:O220"/>
     <mergeCell ref="F221:G221"/>
     <mergeCell ref="H221:J221"/>
-    <mergeCell ref="K221:O221"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="K222:L222"/>
-    <mergeCell ref="M222:O222"/>
-    <mergeCell ref="F223:G223"/>
-    <mergeCell ref="H223:J223"/>
-    <mergeCell ref="K223:L223"/>
-    <mergeCell ref="M223:O223"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:J224"/>
-    <mergeCell ref="K224:L224"/>
-    <mergeCell ref="M224:O224"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="H225:J225"/>
-    <mergeCell ref="K225:L225"/>
-    <mergeCell ref="M225:O225"/>
-    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="H242:J242"/>
+    <mergeCell ref="K242:O242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="H243:J243"/>
+    <mergeCell ref="K243:L243"/>
+    <mergeCell ref="M243:O243"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="H244:J244"/>
+    <mergeCell ref="K244:L244"/>
+    <mergeCell ref="M244:O244"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="H245:J245"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="M245:O245"/>
     <mergeCell ref="F246:G246"/>
     <mergeCell ref="H246:J246"/>
-    <mergeCell ref="K246:O246"/>
-    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="K246:L246"/>
+    <mergeCell ref="M246:O246"/>
     <mergeCell ref="F247:G247"/>
     <mergeCell ref="H247:J247"/>
     <mergeCell ref="K247:L247"/>
@@ -5929,209 +5771,179 @@
     <mergeCell ref="H254:J254"/>
     <mergeCell ref="K254:L254"/>
     <mergeCell ref="M254:O254"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:J255"/>
+    <mergeCell ref="F255:J255"/>
     <mergeCell ref="K255:L255"/>
     <mergeCell ref="M255:O255"/>
     <mergeCell ref="F256:G256"/>
     <mergeCell ref="H256:J256"/>
     <mergeCell ref="K256:L256"/>
     <mergeCell ref="M256:O256"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:J257"/>
-    <mergeCell ref="K257:L257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="H258:J258"/>
-    <mergeCell ref="K258:L258"/>
-    <mergeCell ref="M258:O258"/>
-    <mergeCell ref="F259:J259"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="M259:O259"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:J260"/>
-    <mergeCell ref="K260:L260"/>
-    <mergeCell ref="M260:O260"/>
-    <mergeCell ref="F261:J261"/>
-    <mergeCell ref="K261:L261"/>
-    <mergeCell ref="M261:O261"/>
-    <mergeCell ref="F262:G262"/>
-    <mergeCell ref="H262:J262"/>
-    <mergeCell ref="K262:L262"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="F273:G273"/>
+    <mergeCell ref="H273:J273"/>
+    <mergeCell ref="K273:O273"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="H274:J274"/>
+    <mergeCell ref="K274:L274"/>
+    <mergeCell ref="M274:O274"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="H275:J275"/>
+    <mergeCell ref="K275:L275"/>
+    <mergeCell ref="M275:O275"/>
+    <mergeCell ref="F276:G276"/>
+    <mergeCell ref="H276:J276"/>
+    <mergeCell ref="K276:L276"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="F277:G277"/>
+    <mergeCell ref="H277:J277"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:J278"/>
+    <mergeCell ref="K278:L278"/>
+    <mergeCell ref="M278:O278"/>
     <mergeCell ref="F279:G279"/>
     <mergeCell ref="H279:J279"/>
-    <mergeCell ref="K279:O279"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="H280:J280"/>
+    <mergeCell ref="F280:J280"/>
     <mergeCell ref="K280:L280"/>
     <mergeCell ref="M280:O280"/>
     <mergeCell ref="F281:G281"/>
     <mergeCell ref="H281:J281"/>
-    <mergeCell ref="K281:L281"/>
-    <mergeCell ref="M281:O281"/>
     <mergeCell ref="F282:G282"/>
     <mergeCell ref="H282:J282"/>
-    <mergeCell ref="K282:L282"/>
-    <mergeCell ref="M282:O282"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="H283:J283"/>
+    <mergeCell ref="F283:J283"/>
+    <mergeCell ref="K283:L283"/>
+    <mergeCell ref="M283:O283"/>
     <mergeCell ref="F284:G284"/>
     <mergeCell ref="H284:J284"/>
     <mergeCell ref="K284:L284"/>
     <mergeCell ref="M284:O284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="H285:J285"/>
-    <mergeCell ref="F286:J286"/>
-    <mergeCell ref="K286:L286"/>
-    <mergeCell ref="M286:O286"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="H287:J287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="H288:J288"/>
-    <mergeCell ref="F289:J289"/>
-    <mergeCell ref="K289:L289"/>
-    <mergeCell ref="M289:O289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="H290:J290"/>
-    <mergeCell ref="K290:L290"/>
-    <mergeCell ref="M290:O290"/>
-    <mergeCell ref="F291:J291"/>
-    <mergeCell ref="K291:L291"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="K292:L292"/>
-    <mergeCell ref="M292:O292"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:J304"/>
-    <mergeCell ref="K304:O304"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:J305"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="M305:O305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="H306:J306"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="M306:O306"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="H307:J307"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="M307:O307"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="H308:J308"/>
-    <mergeCell ref="A327:D327"/>
-    <mergeCell ref="F327:G327"/>
-    <mergeCell ref="H327:J327"/>
-    <mergeCell ref="K327:O327"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="F328:G328"/>
-    <mergeCell ref="H328:J328"/>
-    <mergeCell ref="K328:L328"/>
-    <mergeCell ref="M328:O328"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="H329:J329"/>
-    <mergeCell ref="K329:L329"/>
-    <mergeCell ref="M329:O329"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:J330"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="M330:O330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:J331"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="F345:G345"/>
-    <mergeCell ref="H345:J345"/>
-    <mergeCell ref="K345:O345"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="H346:J346"/>
-    <mergeCell ref="K346:L346"/>
-    <mergeCell ref="M346:O346"/>
-    <mergeCell ref="F347:G347"/>
-    <mergeCell ref="H347:J347"/>
-    <mergeCell ref="K347:L347"/>
-    <mergeCell ref="M347:O347"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="H348:J348"/>
-    <mergeCell ref="K348:L348"/>
-    <mergeCell ref="M348:O348"/>
-    <mergeCell ref="F349:G349"/>
-    <mergeCell ref="H349:J349"/>
-    <mergeCell ref="A364:D364"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="H364:J364"/>
-    <mergeCell ref="K364:O364"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="F365:G365"/>
-    <mergeCell ref="H365:J365"/>
-    <mergeCell ref="K365:L365"/>
-    <mergeCell ref="M365:O365"/>
-    <mergeCell ref="F366:G366"/>
-    <mergeCell ref="H366:J366"/>
-    <mergeCell ref="K366:L366"/>
-    <mergeCell ref="M366:O366"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="H367:J367"/>
-    <mergeCell ref="K367:L367"/>
-    <mergeCell ref="M367:O367"/>
-    <mergeCell ref="F368:G368"/>
-    <mergeCell ref="H368:J368"/>
-    <mergeCell ref="A383:D383"/>
-    <mergeCell ref="F383:G383"/>
-    <mergeCell ref="H383:J383"/>
-    <mergeCell ref="K383:O383"/>
-    <mergeCell ref="A384:D384"/>
-    <mergeCell ref="F384:G384"/>
-    <mergeCell ref="H384:J384"/>
-    <mergeCell ref="K384:L384"/>
-    <mergeCell ref="M384:O384"/>
-    <mergeCell ref="F385:G385"/>
-    <mergeCell ref="H385:J385"/>
-    <mergeCell ref="K385:L385"/>
-    <mergeCell ref="M385:O385"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="H386:J386"/>
-    <mergeCell ref="K386:L386"/>
-    <mergeCell ref="M386:O386"/>
-    <mergeCell ref="F387:G387"/>
-    <mergeCell ref="H387:J387"/>
-    <mergeCell ref="A399:D399"/>
-    <mergeCell ref="F399:G399"/>
-    <mergeCell ref="H399:J399"/>
-    <mergeCell ref="K399:O399"/>
-    <mergeCell ref="A400:D400"/>
-    <mergeCell ref="F400:G400"/>
-    <mergeCell ref="H400:J400"/>
-    <mergeCell ref="K400:L400"/>
-    <mergeCell ref="M400:O400"/>
-    <mergeCell ref="F401:G401"/>
-    <mergeCell ref="H401:J401"/>
-    <mergeCell ref="K401:L401"/>
-    <mergeCell ref="M401:O401"/>
-    <mergeCell ref="F402:G402"/>
-    <mergeCell ref="H402:J402"/>
-    <mergeCell ref="K402:O402"/>
-    <mergeCell ref="F403:G403"/>
-    <mergeCell ref="H403:J403"/>
-    <mergeCell ref="K403:L403"/>
-    <mergeCell ref="M403:O403"/>
-    <mergeCell ref="F404:G404"/>
-    <mergeCell ref="H404:J404"/>
-    <mergeCell ref="K404:L404"/>
-    <mergeCell ref="M404:O404"/>
-    <mergeCell ref="F405:G405"/>
-    <mergeCell ref="H405:J405"/>
-    <mergeCell ref="K405:L405"/>
-    <mergeCell ref="M405:O405"/>
-    <mergeCell ref="F406:G406"/>
-    <mergeCell ref="H406:J406"/>
-    <mergeCell ref="K406:L406"/>
-    <mergeCell ref="M406:O406"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="H296:J296"/>
+    <mergeCell ref="K296:O296"/>
+    <mergeCell ref="A297:D297"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:J297"/>
+    <mergeCell ref="K297:L297"/>
+    <mergeCell ref="M297:O297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="K298:L298"/>
+    <mergeCell ref="M298:O298"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="M299:O299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="A319:D319"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="H319:J319"/>
+    <mergeCell ref="K319:O319"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="H320:J320"/>
+    <mergeCell ref="K320:L320"/>
+    <mergeCell ref="M320:O320"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="H321:J321"/>
+    <mergeCell ref="K321:L321"/>
+    <mergeCell ref="M321:O321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="K322:L322"/>
+    <mergeCell ref="M322:O322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="H323:J323"/>
+    <mergeCell ref="A337:D337"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="H337:J337"/>
+    <mergeCell ref="K337:O337"/>
+    <mergeCell ref="A338:D338"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="H338:J338"/>
+    <mergeCell ref="K338:L338"/>
+    <mergeCell ref="M338:O338"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="H339:J339"/>
+    <mergeCell ref="K339:L339"/>
+    <mergeCell ref="M339:O339"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="K340:L340"/>
+    <mergeCell ref="M340:O340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="F356:G356"/>
+    <mergeCell ref="H356:J356"/>
+    <mergeCell ref="K356:O356"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="F357:G357"/>
+    <mergeCell ref="H357:J357"/>
+    <mergeCell ref="K357:L357"/>
+    <mergeCell ref="M357:O357"/>
+    <mergeCell ref="F358:G358"/>
+    <mergeCell ref="H358:J358"/>
+    <mergeCell ref="K358:L358"/>
+    <mergeCell ref="M358:O358"/>
+    <mergeCell ref="F359:G359"/>
+    <mergeCell ref="H359:J359"/>
+    <mergeCell ref="K359:L359"/>
+    <mergeCell ref="M359:O359"/>
+    <mergeCell ref="F360:G360"/>
+    <mergeCell ref="H360:J360"/>
+    <mergeCell ref="A375:D375"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="K375:O375"/>
+    <mergeCell ref="A376:D376"/>
+    <mergeCell ref="F376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="K376:L376"/>
+    <mergeCell ref="M376:O376"/>
+    <mergeCell ref="F377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="K377:L377"/>
+    <mergeCell ref="M377:O377"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="K378:L378"/>
+    <mergeCell ref="M378:O378"/>
+    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="F391:G391"/>
+    <mergeCell ref="H391:J391"/>
+    <mergeCell ref="K391:O391"/>
+    <mergeCell ref="A392:D392"/>
+    <mergeCell ref="F392:G392"/>
+    <mergeCell ref="H392:J392"/>
+    <mergeCell ref="K392:L392"/>
+    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="F393:G393"/>
+    <mergeCell ref="H393:J393"/>
+    <mergeCell ref="K393:L393"/>
+    <mergeCell ref="M393:O393"/>
+    <mergeCell ref="F394:G394"/>
+    <mergeCell ref="H394:J394"/>
+    <mergeCell ref="K394:O394"/>
+    <mergeCell ref="F395:G395"/>
+    <mergeCell ref="H395:J395"/>
+    <mergeCell ref="K395:L395"/>
+    <mergeCell ref="M395:O395"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="H396:J396"/>
+    <mergeCell ref="K396:L396"/>
+    <mergeCell ref="M396:O396"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="H397:J397"/>
+    <mergeCell ref="K397:L397"/>
+    <mergeCell ref="M397:O397"/>
+    <mergeCell ref="F398:G398"/>
+    <mergeCell ref="H398:J398"/>
+    <mergeCell ref="K398:L398"/>
+    <mergeCell ref="M398:O398"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A40:O41"/>
@@ -6139,17 +5951,17 @@
     <mergeCell ref="A85:O86"/>
     <mergeCell ref="A111:O112"/>
     <mergeCell ref="A141:O142"/>
-    <mergeCell ref="A171:O172"/>
-    <mergeCell ref="A197:O198"/>
-    <mergeCell ref="A219:O220"/>
-    <mergeCell ref="A362:O363"/>
-    <mergeCell ref="A381:O382"/>
-    <mergeCell ref="A244:O245"/>
-    <mergeCell ref="A277:O278"/>
-    <mergeCell ref="A302:O303"/>
-    <mergeCell ref="A325:O326"/>
-    <mergeCell ref="A343:O344"/>
-    <mergeCell ref="A397:O398"/>
+    <mergeCell ref="A169:O170"/>
+    <mergeCell ref="A193:O194"/>
+    <mergeCell ref="A215:O216"/>
+    <mergeCell ref="A240:O241"/>
+    <mergeCell ref="A271:O272"/>
+    <mergeCell ref="A354:O355"/>
+    <mergeCell ref="A373:O374"/>
+    <mergeCell ref="A294:O295"/>
+    <mergeCell ref="A317:O318"/>
+    <mergeCell ref="A335:O336"/>
+    <mergeCell ref="A389:O390"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135"/>
+    <workbookView windowWidth="27120" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="组织管理" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -482,6 +482,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -496,23 +550,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,86 +611,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,7 +675,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,49 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,43 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,6 +833,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -850,6 +877,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,63 +930,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -944,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,91 +950,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,10 +1043,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1061,32 +1055,32 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,9 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1488,8 +1479,8 @@
   <sheetPr/>
   <dimension ref="A1:R459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66:O66"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="V439" sqref="V439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6149,15 +6140,15 @@
       </c>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="K451" s="16" t="s">
+      <c r="K451" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L451" s="16"/>
-      <c r="M451" s="16" t="s">
+      <c r="L451" s="6"/>
+      <c r="M451" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N451" s="16"/>
-      <c r="O451" s="16"/>
+      <c r="N451" s="6"/>
+      <c r="O451" s="6"/>
       <c r="P451" s="15"/>
       <c r="Q451" s="15"/>
       <c r="R451" s="15"/>

--- a/需求分析/接口文档/客户/组织管理接口.xlsx
+++ b/需求分析/接口文档/客户/组织管理接口.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="组织管理" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
   <si>
     <t>登录后台系统</t>
   </si>
@@ -343,6 +341,9 @@
   </si>
   <si>
     <t>删除部门成员</t>
+  </si>
+  <si>
+    <t>/s/deleteMember.action</t>
   </si>
   <si>
     <t>删除部门</t>
@@ -440,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -482,6 +483,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -498,6 +538,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -505,11 +553,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,83 +607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,13 +676,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +718,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,37 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,11 +834,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,15 +884,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,36 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -927,6 +919,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,91 +951,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,10 +1044,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,28 +1056,28 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:R459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="V439" sqref="V439"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300:D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4723,7 +4724,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -4819,7 +4820,7 @@
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -4882,7 +4883,7 @@
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -5041,7 +5042,7 @@
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -5137,7 +5138,7 @@
     </row>
     <row r="357" spans="1:15">
       <c r="A357" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -5200,7 +5201,7 @@
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -5284,7 +5285,7 @@
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I363" s="14"/>
       <c r="J363" s="14"/>
@@ -5296,7 +5297,7 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -5359,7 +5360,7 @@
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -5439,7 +5440,7 @@
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G382" s="4"/>
       <c r="H382" s="14" t="s">
@@ -5455,7 +5456,7 @@
     </row>
     <row r="392" spans="1:15">
       <c r="A392" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -5518,7 +5519,7 @@
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -5605,7 +5606,7 @@
       </c>
       <c r="L398" s="4"/>
       <c r="M398" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N398" s="4"/>
       <c r="O398" s="4"/>
@@ -5622,11 +5623,11 @@
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L399" s="4"/>
       <c r="M399" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N399" s="4"/>
       <c r="O399" s="4"/>
@@ -5643,11 +5644,11 @@
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L400" s="4"/>
       <c r="M400" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N400" s="4"/>
       <c r="O400" s="4"/>
@@ -5664,18 +5665,18 @@
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L401" s="4"/>
       <c r="M401" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N401" s="4"/>
       <c r="O401" s="4"/>
     </row>
     <row r="413" spans="1:15">
       <c r="A413" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -5738,7 +5739,7 @@
     </row>
     <row r="416" spans="1:15">
       <c r="A416" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -5760,7 +5761,7 @@
       </c>
       <c r="L416" s="3"/>
       <c r="M416" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N416" s="3"/>
       <c r="O416" s="3"/>
@@ -5834,7 +5835,7 @@
     </row>
     <row r="430" spans="1:15">
       <c r="A430" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -5897,7 +5898,7 @@
     </row>
     <row r="433" spans="1:15">
       <c r="A433" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -5919,7 +5920,7 @@
       </c>
       <c r="L433" s="3"/>
       <c r="M433" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N433" s="3"/>
       <c r="O433" s="3"/>
@@ -5993,7 +5994,7 @@
     </row>
     <row r="446" spans="1:18">
       <c r="A446" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -6010,7 +6011,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
       <c r="P446" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q446" s="15"/>
       <c r="R446" s="15"/>
@@ -6067,7 +6068,7 @@
     </row>
     <row r="449" spans="1:18">
       <c r="A449" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -6214,11 +6215,11 @@
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G454" s="4"/>
       <c r="H454" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="G455" s="4"/>
       <c r="H455" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
@@ -6989,38 +6990,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>